--- a/BackTest/2020-01-13 BackTest DAC.xlsx
+++ b/BackTest/2020-01-13 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -8206,7 +8206,7 @@
         <v>5170620.821099998</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>5394185.790999998</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>5687830.747499999</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>5724227.350699998</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>5657585.753470735</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>4296955.978870736</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>4343975.345870735</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>4307756.605070735</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>4255669.055470736</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>4242430.520570735</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>4189239.416670735</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>4231447.687470735</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>4266927.657170735</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>4061765.646770735</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>3963181.493270735</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>4008945.091570735</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>4032055.451370736</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>3961813.520270735</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>3655214.362470735</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>3728665.000370735</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>3685554.229970735</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>3733043.882470735</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>3696575.652270735</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>3643253.857870735</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>3431508.682070735</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>3517175.634370735</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>2092872.630970735</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>1941734.369470735</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>2006234.389870735</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>2077509.220170735</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>2035223.150970735</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>2087247.686470735</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>2154069.480770736</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>2119054.490970735</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>2083658.814970735</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>2126652.159070735</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>2106811.983970735</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>2139417.229370735</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>2103685.249970735</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>2161895.386070735</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>2227832.447770735</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>3575745.872570734</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>3575745.872570734</v>
       </c>
       <c r="H439" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>2770621.842270735</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>2478802.818570735</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>2478802.818570735</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>3180278.452570735</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>3180278.452570735</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>3180278.452570735</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>3309552.978670735</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>3315484.985270735</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>3266506.755570735</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>3308462.217470735</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>3289395.024570735</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>3289395.024570735</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>3167332.870370735</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>3312045.791370735</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>3261147.954170735</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>3363648.264670735</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>3311172.690170735</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>3344876.707270735</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>3300793.948370735</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>3300793.948370735</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>3348173.145170735</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>3348173.145170735</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>3381907.994270735</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>3585407.982070736</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>3518727.748870736</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>3327613.703170735</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>3277263.186470735</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>3298977.436470735</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>3251118.066770735</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>3179956.298770735</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>3225846.978070735</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>3200193.325570735</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>3159281.869770735</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>3207289.250570735</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>3481713.438870735</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>3481713.438870735</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>3256484.524170735</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>3234071.164570735</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>3234071.164570735</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>3188804.061870735</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>3099498.597870735</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>3062461.249370735</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>3062461.249370735</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>3039477.378470735</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>2998850.469170735</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>2950010.444770735</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>2950010.444770735</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>2862180.303970735</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>2818473.533270734</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>2841043.102470734</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>2777233.001970734</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>2728076.167070734</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>2685538.275570734</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>2662362.847570734</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>2728504.356370734</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>2772900.783570734</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>2035926.010170734</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>2035926.010170734</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>1707621.625670734</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>1727346.797470734</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>1727346.797470734</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>1691851.307370734</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -34738,10 +34738,14 @@
         <v>-2094126.721172987</v>
       </c>
       <c r="H1041" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1041" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="J1041" t="n">
+        <v>2.028</v>
+      </c>
       <c r="K1041" t="inlineStr"/>
       <c r="L1041" t="n">
         <v>1</v>
@@ -34771,11 +34775,19 @@
         <v>-2094126.721172987</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1042" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="J1042" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -34804,11 +34816,19 @@
         <v>-2490766.481772987</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1043" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="J1043" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
         <v>1</v>
       </c>
@@ -34837,11 +34857,19 @@
         <v>-2450728.488072987</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1044" t="inlineStr"/>
-      <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1044" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="J1044" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -34870,11 +34898,19 @@
         <v>-2491723.067472987</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1045" t="inlineStr"/>
-      <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1045" t="n">
+        <v>2.038</v>
+      </c>
+      <c r="J1045" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -34903,11 +34939,19 @@
         <v>-2450062.096772987</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1046" t="inlineStr"/>
-      <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1046" t="n">
+        <v>2.013</v>
+      </c>
+      <c r="J1046" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -34936,11 +34980,19 @@
         <v>-2493466.302972987</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1047" t="inlineStr"/>
-      <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1047" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J1047" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -34969,11 +35021,19 @@
         <v>-2537200.589772987</v>
       </c>
       <c r="H1048" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1048" t="inlineStr"/>
-      <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1048" t="n">
+        <v>2.018</v>
+      </c>
+      <c r="J1048" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -35002,11 +35062,19 @@
         <v>-2495867.479372987</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1049" t="inlineStr"/>
-      <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1049" t="n">
+        <v>2.017</v>
+      </c>
+      <c r="J1049" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -35035,11 +35103,19 @@
         <v>-2547067.612972987</v>
       </c>
       <c r="H1050" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1050" t="inlineStr"/>
-      <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1050" t="n">
+        <v>2.024</v>
+      </c>
+      <c r="J1050" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -35068,11 +35144,19 @@
         <v>-2490468.968672987</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1051" t="inlineStr"/>
-      <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1051" t="n">
+        <v>2.023</v>
+      </c>
+      <c r="J1051" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -35101,11 +35185,19 @@
         <v>-2532351.301072987</v>
       </c>
       <c r="H1052" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1052" t="inlineStr"/>
-      <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1052" t="n">
+        <v>2.033</v>
+      </c>
+      <c r="J1052" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -35134,11 +35226,19 @@
         <v>-2511150.677672987</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1053" t="inlineStr"/>
-      <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1053" t="n">
+        <v>2.024</v>
+      </c>
+      <c r="J1053" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -35167,11 +35267,19 @@
         <v>-2447732.615772987</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1054" t="inlineStr"/>
-      <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1054" t="n">
+        <v>2.029</v>
+      </c>
+      <c r="J1054" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -35200,11 +35308,19 @@
         <v>-2552563.934272987</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1055" t="inlineStr"/>
-      <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1055" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="J1055" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -35233,11 +35349,19 @@
         <v>-2594382.246472987</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1056" t="inlineStr"/>
-      <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1056" t="n">
+        <v>2.034</v>
+      </c>
+      <c r="J1056" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -35266,11 +35390,19 @@
         <v>-2551151.124472987</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1057" t="inlineStr"/>
-      <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1057" t="n">
+        <v>2.032</v>
+      </c>
+      <c r="J1057" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -35299,11 +35431,19 @@
         <v>-2514112.359372987</v>
       </c>
       <c r="H1058" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1058" t="inlineStr"/>
-      <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1058" t="n">
+        <v>2.033</v>
+      </c>
+      <c r="J1058" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -35335,8 +35475,14 @@
         <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
-      <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
+      <c r="J1059" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -35365,11 +35511,19 @@
         <v>-2383879.968872987</v>
       </c>
       <c r="H1060" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1060" t="inlineStr"/>
-      <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1060" t="n">
+        <v>2.035</v>
+      </c>
+      <c r="J1060" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -35401,8 +35555,14 @@
         <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
-      <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+      <c r="J1061" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -35431,11 +35591,19 @@
         <v>-2377618.328772987</v>
       </c>
       <c r="H1062" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1062" t="inlineStr"/>
-      <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1062" t="n">
+        <v>2.023</v>
+      </c>
+      <c r="J1062" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -35464,11 +35632,19 @@
         <v>-2419499.213972987</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1063" t="inlineStr"/>
-      <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1063" t="n">
+        <v>2.031</v>
+      </c>
+      <c r="J1063" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -35497,11 +35673,19 @@
         <v>-2375479.826772987</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1064" t="inlineStr"/>
-      <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="J1064" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -35530,11 +35714,19 @@
         <v>-2360004.900372987</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1065" t="inlineStr"/>
-      <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>2.036</v>
+      </c>
+      <c r="J1065" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -35566,8 +35758,14 @@
         <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
-      <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+      <c r="J1066" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -35599,8 +35797,14 @@
         <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
-      <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
+      <c r="J1067" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -35632,8 +35836,14 @@
         <v>0</v>
       </c>
       <c r="I1068" t="inlineStr"/>
-      <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr"/>
+      <c r="J1068" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -35665,8 +35875,14 @@
         <v>0</v>
       </c>
       <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr"/>
+      <c r="J1069" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -35698,8 +35914,14 @@
         <v>0</v>
       </c>
       <c r="I1070" t="inlineStr"/>
-      <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr"/>
+      <c r="J1070" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -35731,8 +35953,14 @@
         <v>0</v>
       </c>
       <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr"/>
+      <c r="J1071" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1071" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -35764,8 +35992,14 @@
         <v>0</v>
       </c>
       <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr"/>
+      <c r="J1072" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -35797,8 +36031,14 @@
         <v>0</v>
       </c>
       <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+      <c r="J1073" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -35830,8 +36070,14 @@
         <v>0</v>
       </c>
       <c r="I1074" t="inlineStr"/>
-      <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
+      <c r="J1074" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -35863,8 +36109,14 @@
         <v>0</v>
       </c>
       <c r="I1075" t="inlineStr"/>
-      <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
+      <c r="J1075" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -35896,8 +36148,14 @@
         <v>0</v>
       </c>
       <c r="I1076" t="inlineStr"/>
-      <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+      <c r="J1076" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -35929,8 +36187,14 @@
         <v>0</v>
       </c>
       <c r="I1077" t="inlineStr"/>
-      <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+      <c r="J1077" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -35962,8 +36226,14 @@
         <v>0</v>
       </c>
       <c r="I1078" t="inlineStr"/>
-      <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr"/>
+      <c r="J1078" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -35995,8 +36265,14 @@
         <v>0</v>
       </c>
       <c r="I1079" t="inlineStr"/>
-      <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
+      <c r="J1079" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -36028,8 +36304,14 @@
         <v>0</v>
       </c>
       <c r="I1080" t="inlineStr"/>
-      <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr"/>
+      <c r="J1080" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -36061,8 +36343,14 @@
         <v>0</v>
       </c>
       <c r="I1081" t="inlineStr"/>
-      <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
+      <c r="J1081" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -36094,8 +36382,14 @@
         <v>0</v>
       </c>
       <c r="I1082" t="inlineStr"/>
-      <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
+      <c r="J1082" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -36127,8 +36421,14 @@
         <v>0</v>
       </c>
       <c r="I1083" t="inlineStr"/>
-      <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
+      <c r="J1083" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -36160,8 +36460,14 @@
         <v>0</v>
       </c>
       <c r="I1084" t="inlineStr"/>
-      <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+      <c r="J1084" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -36193,8 +36499,14 @@
         <v>0</v>
       </c>
       <c r="I1085" t="inlineStr"/>
-      <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
+      <c r="J1085" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -36226,8 +36538,14 @@
         <v>0</v>
       </c>
       <c r="I1086" t="inlineStr"/>
-      <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
+      <c r="J1086" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -36259,8 +36577,14 @@
         <v>0</v>
       </c>
       <c r="I1087" t="inlineStr"/>
-      <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
+      <c r="J1087" t="n">
+        <v>2.028</v>
+      </c>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -36289,15 +36613,17 @@
         <v>-2231767.885872987</v>
       </c>
       <c r="H1088" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1088" t="n">
-        <v>2.039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1088" t="inlineStr"/>
       <c r="J1088" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="K1088" t="inlineStr"/>
+        <v>2.028</v>
+      </c>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -36330,11 +36656,11 @@
       </c>
       <c r="I1089" t="inlineStr"/>
       <c r="J1089" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1089" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1089" t="n">
@@ -36365,17 +36691,15 @@
         <v>-2236990.389872987</v>
       </c>
       <c r="H1090" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1090" t="n">
-        <v>2.034</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1090" t="inlineStr"/>
       <c r="J1090" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1090" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1090" t="n">
@@ -36406,17 +36730,15 @@
         <v>-1941666.550372987</v>
       </c>
       <c r="H1091" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1091" t="n">
-        <v>2.037</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1091" t="inlineStr"/>
       <c r="J1091" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1091" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1091" t="n">
@@ -36447,13 +36769,11 @@
         <v>-2006534.168972987</v>
       </c>
       <c r="H1092" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1092" t="n">
-        <v>2.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1092" t="inlineStr"/>
       <c r="J1092" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1092" t="inlineStr">
         <is>
@@ -36488,13 +36808,11 @@
         <v>-2006534.168972987</v>
       </c>
       <c r="H1093" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1093" t="n">
-        <v>2.039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1093" t="inlineStr"/>
       <c r="J1093" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1093" t="inlineStr">
         <is>
@@ -36529,13 +36847,11 @@
         <v>-1913274.428972987</v>
       </c>
       <c r="H1094" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1094" t="n">
-        <v>2.039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1094" t="inlineStr"/>
       <c r="J1094" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1094" t="inlineStr">
         <is>
@@ -36570,13 +36886,11 @@
         <v>-1996875.737872987</v>
       </c>
       <c r="H1095" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1095" t="n">
-        <v>2.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1095" t="inlineStr"/>
       <c r="J1095" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1095" t="inlineStr">
         <is>
@@ -36611,13 +36925,11 @@
         <v>-1893826.237972987</v>
       </c>
       <c r="H1096" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1096" t="n">
-        <v>2.039</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1096" t="inlineStr"/>
       <c r="J1096" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1096" t="inlineStr">
         <is>
@@ -36652,13 +36964,11 @@
         <v>-1964125.522572987</v>
       </c>
       <c r="H1097" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1097" t="n">
-        <v>2.044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1097" t="inlineStr"/>
       <c r="J1097" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1097" t="inlineStr">
         <is>
@@ -36693,13 +37003,11 @@
         <v>-2015269.854472987</v>
       </c>
       <c r="H1098" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1098" t="n">
-        <v>2.043</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1098" t="inlineStr"/>
       <c r="J1098" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1098" t="inlineStr">
         <is>
@@ -36734,13 +37042,11 @@
         <v>-2015269.854472987</v>
       </c>
       <c r="H1099" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1099" t="n">
-        <v>2.042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1099" t="inlineStr"/>
       <c r="J1099" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1099" t="inlineStr">
         <is>
@@ -36775,13 +37081,11 @@
         <v>-2060518.568672987</v>
       </c>
       <c r="H1100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1100" t="n">
-        <v>2.042</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1100" t="inlineStr"/>
       <c r="J1100" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1100" t="inlineStr">
         <is>
@@ -36816,13 +37120,11 @@
         <v>-1945258.034872987</v>
       </c>
       <c r="H1101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1101" t="n">
-        <v>2.041</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1101" t="inlineStr"/>
       <c r="J1101" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1101" t="inlineStr">
         <is>
@@ -36857,13 +37159,11 @@
         <v>-1990078.206172987</v>
       </c>
       <c r="H1102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1102" t="n">
-        <v>2.044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1102" t="inlineStr"/>
       <c r="J1102" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1102" t="inlineStr">
         <is>
@@ -36898,13 +37198,11 @@
         <v>-1078451.056672987</v>
       </c>
       <c r="H1103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1103" t="n">
-        <v>2.043</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1103" t="inlineStr"/>
       <c r="J1103" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1103" t="inlineStr">
         <is>
@@ -36939,13 +37237,11 @@
         <v>-489474.2280729873</v>
       </c>
       <c r="H1104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1104" t="n">
-        <v>2.044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1104" t="inlineStr">
         <is>
@@ -36980,13 +37276,11 @@
         <v>-468260.2628729873</v>
       </c>
       <c r="H1105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1105" t="n">
-        <v>2.045</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1105" t="inlineStr">
         <is>
@@ -37021,13 +37315,11 @@
         <v>-428730.1039729873</v>
       </c>
       <c r="H1106" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1106" t="n">
-        <v>2.046</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1106" t="inlineStr">
         <is>
@@ -37062,13 +37354,11 @@
         <v>-388600.8430729873</v>
       </c>
       <c r="H1107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1107" t="n">
-        <v>2.055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1107" t="inlineStr">
         <is>
@@ -37103,13 +37393,11 @@
         <v>-436262.0994729873</v>
       </c>
       <c r="H1108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1108" t="n">
-        <v>2.058</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1108" t="inlineStr">
         <is>
@@ -37144,13 +37432,11 @@
         <v>-481378.1315729874</v>
       </c>
       <c r="H1109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1109" t="n">
-        <v>2.054</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1109" t="inlineStr">
         <is>
@@ -37185,13 +37471,11 @@
         <v>-439829.9215729873</v>
       </c>
       <c r="H1110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1110" t="n">
-        <v>2.045</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1110" t="inlineStr">
         <is>
@@ -37226,13 +37510,11 @@
         <v>-471503.7780729873</v>
       </c>
       <c r="H1111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1111" t="n">
-        <v>2.057</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1111" t="inlineStr">
         <is>
@@ -37267,13 +37549,11 @@
         <v>-440049.7277729873</v>
       </c>
       <c r="H1112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1112" t="n">
-        <v>2.055</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1112" t="inlineStr">
         <is>
@@ -37308,13 +37588,11 @@
         <v>-480122.7921729874</v>
       </c>
       <c r="H1113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1113" t="n">
-        <v>2.059</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1113" t="inlineStr">
         <is>
@@ -37349,13 +37627,11 @@
         <v>-439073.2120729873</v>
       </c>
       <c r="H1114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1114" t="n">
-        <v>2.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1114" t="inlineStr">
         <is>
@@ -37390,13 +37666,11 @@
         <v>-472355.8599729873</v>
       </c>
       <c r="H1115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1115" t="n">
-        <v>2.056</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1115" t="inlineStr">
         <is>
@@ -37435,7 +37709,7 @@
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1116" t="inlineStr">
         <is>
@@ -37474,7 +37748,7 @@
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1117" t="inlineStr">
         <is>
@@ -37513,7 +37787,7 @@
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1118" t="inlineStr">
         <is>
@@ -37548,13 +37822,11 @@
         <v>-514110.5022729874</v>
       </c>
       <c r="H1119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1119" t="n">
-        <v>2.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1119" t="inlineStr">
         <is>
@@ -37589,13 +37861,11 @@
         <v>-466710.6527729874</v>
       </c>
       <c r="H1120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I1120" t="n">
-        <v>2.043</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1120" t="inlineStr">
         <is>
@@ -37634,7 +37904,7 @@
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1121" t="inlineStr">
         <is>
@@ -37673,7 +37943,7 @@
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1122" t="inlineStr">
         <is>
@@ -37712,7 +37982,7 @@
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1123" t="inlineStr">
         <is>
@@ -37751,7 +38021,7 @@
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1124" t="inlineStr">
         <is>
@@ -37790,7 +38060,7 @@
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1125" t="inlineStr">
         <is>
@@ -37829,7 +38099,7 @@
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1126" t="inlineStr">
         <is>
@@ -37868,7 +38138,7 @@
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1127" t="inlineStr">
         <is>
@@ -37907,7 +38177,7 @@
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1128" t="inlineStr">
         <is>
@@ -37946,7 +38216,7 @@
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1129" t="inlineStr">
         <is>
@@ -37985,7 +38255,7 @@
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1130" t="inlineStr">
         <is>
@@ -38024,7 +38294,7 @@
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1131" t="inlineStr">
         <is>
@@ -38063,7 +38333,7 @@
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1132" t="inlineStr">
         <is>
@@ -38102,7 +38372,7 @@
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1133" t="inlineStr">
         <is>
@@ -38141,7 +38411,7 @@
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1134" t="inlineStr">
         <is>
@@ -38180,7 +38450,7 @@
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1135" t="inlineStr">
         <is>
@@ -38219,7 +38489,7 @@
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1136" t="inlineStr">
         <is>
@@ -38258,7 +38528,7 @@
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1137" t="inlineStr">
         <is>
@@ -38297,7 +38567,7 @@
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1138" t="inlineStr">
         <is>
@@ -38336,7 +38606,7 @@
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1139" t="inlineStr">
         <is>
@@ -38375,7 +38645,7 @@
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1140" t="inlineStr">
         <is>
@@ -38414,7 +38684,7 @@
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1141" t="inlineStr">
         <is>
@@ -38453,7 +38723,7 @@
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1142" t="inlineStr">
         <is>
@@ -38492,7 +38762,7 @@
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1143" t="inlineStr">
         <is>
@@ -38531,7 +38801,7 @@
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1144" t="inlineStr">
         <is>
@@ -38570,7 +38840,7 @@
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1145" t="inlineStr">
         <is>
@@ -38609,7 +38879,7 @@
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1146" t="inlineStr">
         <is>
@@ -38648,7 +38918,7 @@
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1147" t="inlineStr">
         <is>
@@ -38687,7 +38957,7 @@
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1148" t="inlineStr">
         <is>
@@ -38726,7 +38996,7 @@
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1149" t="inlineStr">
         <is>
@@ -38765,7 +39035,7 @@
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1150" t="inlineStr">
         <is>
@@ -38804,7 +39074,7 @@
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1151" t="inlineStr">
         <is>
@@ -38843,7 +39113,7 @@
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1152" t="inlineStr">
         <is>
@@ -38882,7 +39152,7 @@
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1153" t="inlineStr">
         <is>
@@ -38921,7 +39191,7 @@
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1154" t="inlineStr">
         <is>
@@ -38960,7 +39230,7 @@
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1155" t="inlineStr">
         <is>
@@ -38999,7 +39269,7 @@
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1156" t="inlineStr">
         <is>
@@ -39038,7 +39308,7 @@
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1157" t="inlineStr">
         <is>
@@ -39077,7 +39347,7 @@
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1158" t="inlineStr">
         <is>
@@ -39116,7 +39386,7 @@
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1159" t="inlineStr">
         <is>
@@ -39155,7 +39425,7 @@
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1160" t="inlineStr">
         <is>
@@ -39194,7 +39464,7 @@
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1161" t="inlineStr">
         <is>
@@ -39233,7 +39503,7 @@
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1162" t="inlineStr">
         <is>
@@ -39272,7 +39542,7 @@
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1163" t="inlineStr">
         <is>
@@ -39311,7 +39581,7 @@
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1164" t="inlineStr">
         <is>
@@ -39350,7 +39620,7 @@
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1165" t="inlineStr">
         <is>
@@ -39389,7 +39659,7 @@
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1166" t="inlineStr">
         <is>
@@ -39428,7 +39698,7 @@
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1167" t="inlineStr">
         <is>
@@ -39467,7 +39737,7 @@
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1168" t="inlineStr">
         <is>
@@ -39506,7 +39776,7 @@
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1169" t="inlineStr">
         <is>
@@ -39545,7 +39815,7 @@
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1170" t="inlineStr">
         <is>
@@ -39584,7 +39854,7 @@
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1171" t="inlineStr">
         <is>
@@ -39623,7 +39893,7 @@
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1172" t="inlineStr">
         <is>
@@ -39662,7 +39932,7 @@
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1173" t="inlineStr">
         <is>
@@ -39701,7 +39971,7 @@
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1174" t="inlineStr">
         <is>
@@ -39740,7 +40010,7 @@
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1175" t="inlineStr">
         <is>
@@ -39779,7 +40049,7 @@
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1176" t="inlineStr">
         <is>
@@ -39818,7 +40088,7 @@
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1177" t="inlineStr">
         <is>
@@ -39857,7 +40127,7 @@
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1178" t="inlineStr">
         <is>
@@ -39896,7 +40166,7 @@
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1179" t="inlineStr">
         <is>
@@ -39935,7 +40205,7 @@
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1180" t="inlineStr">
         <is>
@@ -39974,7 +40244,7 @@
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1181" t="inlineStr">
         <is>
@@ -40013,7 +40283,7 @@
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1182" t="inlineStr">
         <is>
@@ -40052,7 +40322,7 @@
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1183" t="inlineStr">
         <is>
@@ -40091,7 +40361,7 @@
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1184" t="inlineStr">
         <is>
@@ -40130,7 +40400,7 @@
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1185" t="inlineStr">
         <is>
@@ -40169,7 +40439,7 @@
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1186" t="inlineStr">
         <is>
@@ -40208,7 +40478,7 @@
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1187" t="inlineStr">
         <is>
@@ -40247,7 +40517,7 @@
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1188" t="inlineStr">
         <is>
@@ -40286,7 +40556,7 @@
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1189" t="inlineStr">
         <is>
@@ -40325,7 +40595,7 @@
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1190" t="inlineStr">
         <is>
@@ -40364,7 +40634,7 @@
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1191" t="inlineStr">
         <is>
@@ -40403,7 +40673,7 @@
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1192" t="inlineStr">
         <is>
@@ -40442,7 +40712,7 @@
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1193" t="inlineStr">
         <is>
@@ -40481,7 +40751,7 @@
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1194" t="inlineStr">
         <is>
@@ -40520,7 +40790,7 @@
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1195" t="inlineStr">
         <is>
@@ -40559,7 +40829,7 @@
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1196" t="inlineStr">
         <is>
@@ -40598,7 +40868,7 @@
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1197" t="inlineStr">
         <is>
@@ -40637,7 +40907,7 @@
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1198" t="inlineStr">
         <is>
@@ -40676,7 +40946,7 @@
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1199" t="inlineStr">
         <is>
@@ -40715,7 +40985,7 @@
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1200" t="inlineStr">
         <is>
@@ -40754,7 +41024,7 @@
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1201" t="inlineStr">
         <is>
@@ -40793,7 +41063,7 @@
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1202" t="inlineStr">
         <is>
@@ -40832,7 +41102,7 @@
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1203" t="inlineStr">
         <is>
@@ -40871,7 +41141,7 @@
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1204" t="inlineStr">
         <is>
@@ -40910,7 +41180,7 @@
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1205" t="inlineStr">
         <is>
@@ -40949,7 +41219,7 @@
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1206" t="inlineStr">
         <is>
@@ -40988,7 +41258,7 @@
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1207" t="inlineStr">
         <is>
@@ -41027,7 +41297,7 @@
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1208" t="inlineStr">
         <is>
@@ -41066,7 +41336,7 @@
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1209" t="inlineStr">
         <is>
@@ -41105,7 +41375,7 @@
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1210" t="inlineStr">
         <is>
@@ -41144,7 +41414,7 @@
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1211" t="inlineStr">
         <is>
@@ -41183,7 +41453,7 @@
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1212" t="inlineStr">
         <is>
@@ -41222,7 +41492,7 @@
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1213" t="inlineStr">
         <is>
@@ -41261,7 +41531,7 @@
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1214" t="inlineStr">
         <is>
@@ -41300,7 +41570,7 @@
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1215" t="inlineStr">
         <is>
@@ -41339,7 +41609,7 @@
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1216" t="inlineStr">
         <is>
@@ -41378,7 +41648,7 @@
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1217" t="inlineStr">
         <is>
@@ -41417,7 +41687,7 @@
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1218" t="inlineStr">
         <is>
@@ -41456,7 +41726,7 @@
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1219" t="inlineStr">
         <is>
@@ -41495,7 +41765,7 @@
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1220" t="inlineStr">
         <is>
@@ -41534,7 +41804,7 @@
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1221" t="inlineStr">
         <is>
@@ -41573,7 +41843,7 @@
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1222" t="inlineStr">
         <is>
@@ -41612,7 +41882,7 @@
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1223" t="inlineStr">
         <is>
@@ -41651,7 +41921,7 @@
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1224" t="inlineStr">
         <is>
@@ -41690,7 +41960,7 @@
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1225" t="inlineStr">
         <is>
@@ -41729,7 +41999,7 @@
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1226" t="inlineStr">
         <is>
@@ -41768,7 +42038,7 @@
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1227" t="inlineStr">
         <is>
@@ -41807,7 +42077,7 @@
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1228" t="inlineStr">
         <is>
@@ -41846,7 +42116,7 @@
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1229" t="inlineStr">
         <is>
@@ -41885,7 +42155,7 @@
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1230" t="inlineStr">
         <is>
@@ -41924,7 +42194,7 @@
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1231" t="inlineStr">
         <is>
@@ -41963,7 +42233,7 @@
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1232" t="inlineStr">
         <is>
@@ -42002,7 +42272,7 @@
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1233" t="inlineStr">
         <is>
@@ -42041,7 +42311,7 @@
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1234" t="inlineStr">
         <is>
@@ -42080,7 +42350,7 @@
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1235" t="inlineStr">
         <is>
@@ -42119,7 +42389,7 @@
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1236" t="inlineStr">
         <is>
@@ -42158,7 +42428,7 @@
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1237" t="inlineStr">
         <is>
@@ -42197,7 +42467,7 @@
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1238" t="inlineStr">
         <is>
@@ -42236,7 +42506,7 @@
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1239" t="inlineStr">
         <is>
@@ -42275,7 +42545,7 @@
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1240" t="inlineStr">
         <is>
@@ -42314,7 +42584,7 @@
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1241" t="inlineStr">
         <is>
@@ -42353,7 +42623,7 @@
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1242" t="inlineStr">
         <is>
@@ -42392,7 +42662,7 @@
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1243" t="inlineStr">
         <is>
@@ -42431,7 +42701,7 @@
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1244" t="inlineStr">
         <is>
@@ -42470,7 +42740,7 @@
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1245" t="inlineStr">
         <is>
@@ -42509,7 +42779,7 @@
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1246" t="inlineStr">
         <is>
@@ -42548,7 +42818,7 @@
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1247" t="inlineStr">
         <is>
@@ -42587,7 +42857,7 @@
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1248" t="inlineStr">
         <is>
@@ -42626,7 +42896,7 @@
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1249" t="inlineStr">
         <is>
@@ -42665,7 +42935,7 @@
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1250" t="inlineStr">
         <is>
@@ -42704,7 +42974,7 @@
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1251" t="inlineStr">
         <is>
@@ -42743,7 +43013,7 @@
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1252" t="inlineStr">
         <is>
@@ -42782,7 +43052,7 @@
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1253" t="inlineStr">
         <is>
@@ -42821,7 +43091,7 @@
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1254" t="inlineStr">
         <is>
@@ -42860,7 +43130,7 @@
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1255" t="inlineStr">
         <is>
@@ -42899,7 +43169,7 @@
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1256" t="inlineStr">
         <is>
@@ -42938,7 +43208,7 @@
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1257" t="inlineStr">
         <is>
@@ -42977,7 +43247,7 @@
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1258" t="inlineStr">
         <is>
@@ -43016,7 +43286,7 @@
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1259" t="inlineStr">
         <is>
@@ -43055,7 +43325,7 @@
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1260" t="inlineStr">
         <is>
@@ -43094,7 +43364,7 @@
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1261" t="inlineStr">
         <is>
@@ -43133,7 +43403,7 @@
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1262" t="inlineStr">
         <is>
@@ -43172,7 +43442,7 @@
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1263" t="inlineStr">
         <is>
@@ -43211,7 +43481,7 @@
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1264" t="inlineStr">
         <is>
@@ -43250,7 +43520,7 @@
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1265" t="inlineStr">
         <is>
@@ -43289,7 +43559,7 @@
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1266" t="inlineStr">
         <is>
@@ -43328,7 +43598,7 @@
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1267" t="inlineStr">
         <is>
@@ -43367,7 +43637,7 @@
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1268" t="inlineStr">
         <is>
@@ -43406,7 +43676,7 @@
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1269" t="inlineStr">
         <is>
@@ -43445,7 +43715,7 @@
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1270" t="inlineStr">
         <is>
@@ -43484,7 +43754,7 @@
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1271" t="inlineStr">
         <is>
@@ -43523,7 +43793,7 @@
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1272" t="inlineStr">
         <is>
@@ -43562,7 +43832,7 @@
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="n">
-        <v>2.039</v>
+        <v>2.028</v>
       </c>
       <c r="K1273" t="inlineStr">
         <is>
@@ -43575,6 +43845,6 @@
       <c r="M1273" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest DAC.xlsx
+++ b/BackTest/2020-01-13 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -8206,7 +8206,7 @@
         <v>5170620.821099998</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>4296955.978870736</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>4343975.345870735</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>4307756.605070735</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>4255669.055470736</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>4242430.520570735</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>4189239.416670735</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>4231447.687470735</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>4266927.657170735</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>4061765.646770735</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>3963181.493270735</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>4008945.091570735</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>4032055.451370736</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>3961813.520270735</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>3655214.362470735</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>3728665.000370735</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>3685554.229970735</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>2134326.605570735</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>2177129.837670736</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>2136527.946470736</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>2186148.201770735</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>1941734.369470735</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>2006234.389870735</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>2077509.220170735</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>2035223.150970735</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>2087247.686470735</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>2154069.480770736</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>2119054.490970735</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>2083658.814970735</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>2126652.159070735</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>2106811.983970735</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>2139417.229370735</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>2103685.249970735</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>2161895.386070735</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>2227832.447770735</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>3244056.891270735</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>3621019.802770735</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>3675053.875370735</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>3351475.492570735</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>3575745.872570734</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>3575745.872570734</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>3575745.872570734</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>3523450.076470735</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>3558260.905270734</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>3558260.905270734</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>3599358.510970735</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>3552587.791370735</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>3591996.619970735</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>3591996.619970735</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>3543369.604470734</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>3460902.128870734</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>3439010.127370735</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>3273535.182170735</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>3333634.289170735</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>3372000.619670735</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>3263875.568670735</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>3324120.163870735</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>3068250.774570735</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>2949448.756670735</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>2968409.888570735</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>3018556.715570735</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>2991217.056570735</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>3033024.376870735</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>2979302.742670734</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>2863666.846770735</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>2770621.842270735</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>2478802.818570735</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>2478802.818570735</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>3180278.452570735</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>3180278.452570735</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>3180278.452570735</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>3309552.978670735</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>3315484.985270735</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>3266506.755570735</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>3308462.217470735</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>3289395.024570735</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>3289395.024570735</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>3167332.870370735</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>3312045.791370735</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>3261147.954170735</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>3363648.264670735</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>3311172.690170735</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>3344876.707270735</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>3300793.948370735</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>3300793.948370735</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>3348173.145170735</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>3348173.145170735</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>3381907.994270735</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>3585407.982070736</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>3518727.748870736</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>3327613.703170735</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>3277263.186470735</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>3298977.436470735</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>3251118.066770735</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>3179956.298770735</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>3225846.978070735</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>3200193.325570735</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>3159281.869770735</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>3207289.250570735</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>3481713.438870735</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>3481713.438870735</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>3256484.524170735</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>3234071.164570735</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>3234071.164570735</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>3188804.061870735</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>3099498.597870735</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>3062461.249370735</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>3062461.249370735</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>3039477.378470735</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>2998850.469170735</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>2950010.444770735</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>2950010.444770735</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>2862180.303970735</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>2818473.533270734</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>2841043.102470734</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>2777233.001970734</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>2728076.167070734</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>2685538.275570734</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>2662362.847570734</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>2728504.356370734</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>2772900.783570734</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>2035926.010170734</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>2035926.010170734</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>1707621.625670734</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>1727346.797470734</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>1727346.797470734</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>1691851.307370734</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -34738,14 +34738,10 @@
         <v>-2094126.721172987</v>
       </c>
       <c r="H1041" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1041" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="J1041" t="n">
-        <v>2.028</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1041" t="inlineStr"/>
+      <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr"/>
       <c r="L1041" t="n">
         <v>1</v>
@@ -34775,1972 +34771,1648 @@
         <v>-2094126.721172987</v>
       </c>
       <c r="H1042" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1042" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1042" t="inlineStr"/>
+      <c r="J1042" t="inlineStr"/>
+      <c r="K1042" t="inlineStr"/>
+      <c r="L1042" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1042" t="inlineStr"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="1" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B1043" t="n">
+        <v>2.038</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>2.038</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>396639.7606</v>
+      </c>
+      <c r="G1043" t="n">
+        <v>-2490766.481772987</v>
+      </c>
+      <c r="H1043" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1043" t="inlineStr"/>
+      <c r="J1043" t="inlineStr"/>
+      <c r="K1043" t="inlineStr"/>
+      <c r="L1043" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1043" t="inlineStr"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="1" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B1044" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>2.038</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>2.038</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>2.015</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>40037.9937</v>
+      </c>
+      <c r="G1044" t="n">
+        <v>-2450728.488072987</v>
+      </c>
+      <c r="H1044" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1044" t="inlineStr"/>
+      <c r="J1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr"/>
+      <c r="L1044" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1044" t="inlineStr"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="1" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B1045" t="n">
+        <v>2.031</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>2.013</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>2.031</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>2.013</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>40994.5794</v>
+      </c>
+      <c r="G1045" t="n">
+        <v>-2491723.067472987</v>
+      </c>
+      <c r="H1045" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1045" t="inlineStr"/>
+      <c r="J1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr"/>
+      <c r="L1045" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1045" t="inlineStr"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="1" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B1046" t="n">
+        <v>2.013</v>
+      </c>
+      <c r="C1046" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="D1046" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="E1046" t="n">
+        <v>2.013</v>
+      </c>
+      <c r="F1046" t="n">
+        <v>41660.9707</v>
+      </c>
+      <c r="G1046" t="n">
+        <v>-2450062.096772987</v>
+      </c>
+      <c r="H1046" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1046" t="inlineStr"/>
+      <c r="J1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr"/>
+      <c r="L1046" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1046" t="inlineStr"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="1" t="n">
+        <v>1045</v>
+      </c>
+      <c r="B1047" t="n">
+        <v>2.027</v>
+      </c>
+      <c r="C1047" t="n">
+        <v>2.018</v>
+      </c>
+      <c r="D1047" t="n">
+        <v>2.027</v>
+      </c>
+      <c r="E1047" t="n">
+        <v>2.018</v>
+      </c>
+      <c r="F1047" t="n">
+        <v>43404.2062</v>
+      </c>
+      <c r="G1047" t="n">
+        <v>-2493466.302972987</v>
+      </c>
+      <c r="H1047" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1047" t="inlineStr"/>
+      <c r="J1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr"/>
+      <c r="L1047" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1047" t="inlineStr"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="1" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B1048" t="n">
+        <v>2.018</v>
+      </c>
+      <c r="C1048" t="n">
+        <v>2.017</v>
+      </c>
+      <c r="D1048" t="n">
+        <v>2.018</v>
+      </c>
+      <c r="E1048" t="n">
+        <v>2.017</v>
+      </c>
+      <c r="F1048" t="n">
+        <v>43734.2868</v>
+      </c>
+      <c r="G1048" t="n">
+        <v>-2537200.589772987</v>
+      </c>
+      <c r="H1048" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1048" t="inlineStr"/>
+      <c r="J1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr"/>
+      <c r="L1048" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1048" t="inlineStr"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="1" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B1049" t="n">
+        <v>2.018</v>
+      </c>
+      <c r="C1049" t="n">
+        <v>2.024</v>
+      </c>
+      <c r="D1049" t="n">
+        <v>2.024</v>
+      </c>
+      <c r="E1049" t="n">
+        <v>2.018</v>
+      </c>
+      <c r="F1049" t="n">
+        <v>41333.1104</v>
+      </c>
+      <c r="G1049" t="n">
+        <v>-2495867.479372987</v>
+      </c>
+      <c r="H1049" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1049" t="inlineStr"/>
+      <c r="J1049" t="inlineStr"/>
+      <c r="K1049" t="inlineStr"/>
+      <c r="L1049" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1049" t="inlineStr"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="1" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B1050" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="C1050" t="n">
+        <v>2.023</v>
+      </c>
+      <c r="D1050" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="E1050" t="n">
+        <v>2.023</v>
+      </c>
+      <c r="F1050" t="n">
+        <v>51200.1336</v>
+      </c>
+      <c r="G1050" t="n">
+        <v>-2547067.612972987</v>
+      </c>
+      <c r="H1050" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1050" t="inlineStr"/>
+      <c r="J1050" t="inlineStr"/>
+      <c r="K1050" t="inlineStr"/>
+      <c r="L1050" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1050" t="inlineStr"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="1" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B1051" t="n">
+        <v>2.032</v>
+      </c>
+      <c r="C1051" t="n">
+        <v>2.033</v>
+      </c>
+      <c r="D1051" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="E1051" t="n">
+        <v>2.032</v>
+      </c>
+      <c r="F1051" t="n">
+        <v>56598.6443</v>
+      </c>
+      <c r="G1051" t="n">
+        <v>-2490468.968672987</v>
+      </c>
+      <c r="H1051" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1051" t="inlineStr"/>
+      <c r="J1051" t="inlineStr"/>
+      <c r="K1051" t="inlineStr"/>
+      <c r="L1051" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1051" t="inlineStr"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="1" t="n">
+        <v>1050</v>
+      </c>
+      <c r="B1052" t="n">
+        <v>2.023</v>
+      </c>
+      <c r="C1052" t="n">
+        <v>2.024</v>
+      </c>
+      <c r="D1052" t="n">
+        <v>2.024</v>
+      </c>
+      <c r="E1052" t="n">
+        <v>2.023</v>
+      </c>
+      <c r="F1052" t="n">
+        <v>41882.3324</v>
+      </c>
+      <c r="G1052" t="n">
+        <v>-2532351.301072987</v>
+      </c>
+      <c r="H1052" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1052" t="inlineStr"/>
+      <c r="J1052" t="inlineStr"/>
+      <c r="K1052" t="inlineStr"/>
+      <c r="L1052" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1052" t="inlineStr"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="1" t="n">
+        <v>1051</v>
+      </c>
+      <c r="B1053" t="n">
+        <v>2.029</v>
+      </c>
+      <c r="C1053" t="n">
+        <v>2.029</v>
+      </c>
+      <c r="D1053" t="n">
+        <v>2.029</v>
+      </c>
+      <c r="E1053" t="n">
+        <v>2.029</v>
+      </c>
+      <c r="F1053" t="n">
+        <v>21200.6234</v>
+      </c>
+      <c r="G1053" t="n">
+        <v>-2511150.677672987</v>
+      </c>
+      <c r="H1053" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1053" t="inlineStr"/>
+      <c r="J1053" t="inlineStr"/>
+      <c r="K1053" t="inlineStr"/>
+      <c r="L1053" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1053" t="inlineStr"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="1" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B1054" t="n">
+        <v>2.034</v>
+      </c>
+      <c r="C1054" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="D1054" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="E1054" t="n">
+        <v>2.034</v>
+      </c>
+      <c r="F1054" t="n">
+        <v>63418.0619</v>
+      </c>
+      <c r="G1054" t="n">
+        <v>-2447732.615772987</v>
+      </c>
+      <c r="H1054" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1054" t="inlineStr"/>
+      <c r="J1054" t="inlineStr"/>
+      <c r="K1054" t="inlineStr"/>
+      <c r="L1054" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1054" t="inlineStr"/>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="1" t="n">
+        <v>1053</v>
+      </c>
+      <c r="B1055" t="n">
+        <v>2.036</v>
+      </c>
+      <c r="C1055" t="n">
+        <v>2.034</v>
+      </c>
+      <c r="D1055" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="E1055" t="n">
+        <v>2.033</v>
+      </c>
+      <c r="F1055" t="n">
+        <v>104831.3185</v>
+      </c>
+      <c r="G1055" t="n">
+        <v>-2552563.934272987</v>
+      </c>
+      <c r="H1055" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1055" t="inlineStr"/>
+      <c r="J1055" t="inlineStr"/>
+      <c r="K1055" t="inlineStr"/>
+      <c r="L1055" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1055" t="inlineStr"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="1" t="n">
+        <v>1054</v>
+      </c>
+      <c r="B1056" t="n">
+        <v>2.029</v>
+      </c>
+      <c r="C1056" t="n">
+        <v>2.032</v>
+      </c>
+      <c r="D1056" t="n">
+        <v>2.032</v>
+      </c>
+      <c r="E1056" t="n">
+        <v>2.029</v>
+      </c>
+      <c r="F1056" t="n">
+        <v>41818.3122</v>
+      </c>
+      <c r="G1056" t="n">
+        <v>-2594382.246472987</v>
+      </c>
+      <c r="H1056" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1056" t="inlineStr"/>
+      <c r="J1056" t="inlineStr"/>
+      <c r="K1056" t="inlineStr"/>
+      <c r="L1056" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1056" t="inlineStr"/>
+    </row>
+    <row r="1057">
+      <c r="A1057" s="1" t="n">
+        <v>1055</v>
+      </c>
+      <c r="B1057" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="C1057" t="n">
+        <v>2.033</v>
+      </c>
+      <c r="D1057" t="n">
+        <v>2.033</v>
+      </c>
+      <c r="E1057" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F1057" t="n">
+        <v>43231.122</v>
+      </c>
+      <c r="G1057" t="n">
+        <v>-2551151.124472987</v>
+      </c>
+      <c r="H1057" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1057" t="inlineStr"/>
+      <c r="J1057" t="inlineStr"/>
+      <c r="K1057" t="inlineStr"/>
+      <c r="L1057" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1057" t="inlineStr"/>
+    </row>
+    <row r="1058">
+      <c r="A1058" s="1" t="n">
+        <v>1056</v>
+      </c>
+      <c r="B1058" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="C1058" t="n">
+        <v>2.034</v>
+      </c>
+      <c r="D1058" t="n">
+        <v>2.034</v>
+      </c>
+      <c r="E1058" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="F1058" t="n">
+        <v>37038.7651</v>
+      </c>
+      <c r="G1058" t="n">
+        <v>-2514112.359372987</v>
+      </c>
+      <c r="H1058" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1058" t="inlineStr"/>
+      <c r="J1058" t="inlineStr"/>
+      <c r="K1058" t="inlineStr"/>
+      <c r="L1058" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1058" t="inlineStr"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="1" t="n">
+        <v>1057</v>
+      </c>
+      <c r="B1059" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="C1059" t="n">
+        <v>2.035</v>
+      </c>
+      <c r="D1059" t="n">
+        <v>2.035</v>
+      </c>
+      <c r="E1059" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="F1059" t="n">
+        <v>68075.7105</v>
+      </c>
+      <c r="G1059" t="n">
+        <v>-2446036.648872987</v>
+      </c>
+      <c r="H1059" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1059" t="inlineStr"/>
+      <c r="J1059" t="inlineStr"/>
+      <c r="K1059" t="inlineStr"/>
+      <c r="L1059" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1059" t="inlineStr"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="1" t="n">
+        <v>1058</v>
+      </c>
+      <c r="B1060" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="C1060" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="D1060" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="E1060" t="n">
+        <v>2.026</v>
+      </c>
+      <c r="F1060" t="n">
+        <v>62156.68</v>
+      </c>
+      <c r="G1060" t="n">
+        <v>-2383879.968872987</v>
+      </c>
+      <c r="H1060" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1060" t="inlineStr"/>
+      <c r="J1060" t="inlineStr"/>
+      <c r="K1060" t="inlineStr"/>
+      <c r="L1060" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1060" t="inlineStr"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="1" t="n">
+        <v>1059</v>
+      </c>
+      <c r="B1061" t="n">
+        <v>2.023</v>
+      </c>
+      <c r="C1061" t="n">
+        <v>2.023</v>
+      </c>
+      <c r="D1061" t="n">
+        <v>2.023</v>
+      </c>
+      <c r="E1061" t="n">
+        <v>2.023</v>
+      </c>
+      <c r="F1061" t="n">
+        <v>33471.6351</v>
+      </c>
+      <c r="G1061" t="n">
+        <v>-2417351.603972987</v>
+      </c>
+      <c r="H1061" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1061" t="inlineStr"/>
+      <c r="J1061" t="inlineStr"/>
+      <c r="K1061" t="inlineStr"/>
+      <c r="L1061" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1061" t="inlineStr"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="1" t="n">
+        <v>1060</v>
+      </c>
+      <c r="B1062" t="n">
+        <v>2.027</v>
+      </c>
+      <c r="C1062" t="n">
+        <v>2.031</v>
+      </c>
+      <c r="D1062" t="n">
+        <v>2.031</v>
+      </c>
+      <c r="E1062" t="n">
+        <v>2.027</v>
+      </c>
+      <c r="F1062" t="n">
+        <v>39733.2752</v>
+      </c>
+      <c r="G1062" t="n">
+        <v>-2377618.328772987</v>
+      </c>
+      <c r="H1062" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1062" t="inlineStr"/>
+      <c r="J1062" t="inlineStr"/>
+      <c r="K1062" t="inlineStr"/>
+      <c r="L1062" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1062" t="inlineStr"/>
+    </row>
+    <row r="1063">
+      <c r="A1063" s="1" t="n">
+        <v>1061</v>
+      </c>
+      <c r="B1063" t="n">
+        <v>2.027</v>
+      </c>
+      <c r="C1063" t="n">
         <v>2.028</v>
       </c>
-      <c r="J1042" t="n">
+      <c r="D1063" t="n">
         <v>2.028</v>
       </c>
-      <c r="K1042" t="inlineStr">
+      <c r="E1063" t="n">
+        <v>2.027</v>
+      </c>
+      <c r="F1063" t="n">
+        <v>41880.8852</v>
+      </c>
+      <c r="G1063" t="n">
+        <v>-2419499.213972987</v>
+      </c>
+      <c r="H1063" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1063" t="inlineStr"/>
+      <c r="J1063" t="inlineStr"/>
+      <c r="K1063" t="inlineStr"/>
+      <c r="L1063" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1063" t="inlineStr"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="1" t="n">
+        <v>1062</v>
+      </c>
+      <c r="B1064" t="n">
+        <v>2.027</v>
+      </c>
+      <c r="C1064" t="n">
+        <v>2.036</v>
+      </c>
+      <c r="D1064" t="n">
+        <v>2.036</v>
+      </c>
+      <c r="E1064" t="n">
+        <v>2.027</v>
+      </c>
+      <c r="F1064" t="n">
+        <v>44019.3872</v>
+      </c>
+      <c r="G1064" t="n">
+        <v>-2375479.826772987</v>
+      </c>
+      <c r="H1064" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1064" t="inlineStr"/>
+      <c r="J1064" t="inlineStr"/>
+      <c r="K1064" t="inlineStr"/>
+      <c r="L1064" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1064" t="inlineStr"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="1" t="n">
+        <v>1063</v>
+      </c>
+      <c r="B1065" t="n">
+        <v>2.038</v>
+      </c>
+      <c r="C1065" t="n">
+        <v>2.038</v>
+      </c>
+      <c r="D1065" t="n">
+        <v>2.038</v>
+      </c>
+      <c r="E1065" t="n">
+        <v>2.038</v>
+      </c>
+      <c r="F1065" t="n">
+        <v>15474.9264</v>
+      </c>
+      <c r="G1065" t="n">
+        <v>-2360004.900372987</v>
+      </c>
+      <c r="H1065" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1065" t="inlineStr"/>
+      <c r="J1065" t="inlineStr"/>
+      <c r="K1065" t="inlineStr"/>
+      <c r="L1065" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1065" t="inlineStr"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="1" t="n">
+        <v>1064</v>
+      </c>
+      <c r="B1066" t="n">
+        <v>2.036</v>
+      </c>
+      <c r="C1066" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="D1066" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="E1066" t="n">
+        <v>2.036</v>
+      </c>
+      <c r="F1066" t="n">
+        <v>140857.9795</v>
+      </c>
+      <c r="G1066" t="n">
+        <v>-2219146.920872987</v>
+      </c>
+      <c r="H1066" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1066" t="inlineStr"/>
+      <c r="J1066" t="inlineStr"/>
+      <c r="K1066" t="inlineStr"/>
+      <c r="L1066" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1066" t="inlineStr"/>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="1" t="n">
+        <v>1065</v>
+      </c>
+      <c r="B1067" t="n">
+        <v>2.049</v>
+      </c>
+      <c r="C1067" t="n">
+        <v>2.047</v>
+      </c>
+      <c r="D1067" t="n">
+        <v>2.049</v>
+      </c>
+      <c r="E1067" t="n">
+        <v>2.047</v>
+      </c>
+      <c r="F1067" t="n">
+        <v>35229.421</v>
+      </c>
+      <c r="G1067" t="n">
+        <v>-2183917.499872987</v>
+      </c>
+      <c r="H1067" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1067" t="inlineStr"/>
+      <c r="J1067" t="inlineStr"/>
+      <c r="K1067" t="inlineStr"/>
+      <c r="L1067" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1067" t="inlineStr"/>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="1" t="n">
+        <v>1066</v>
+      </c>
+      <c r="B1068" t="n">
+        <v>2.034</v>
+      </c>
+      <c r="C1068" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D1068" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E1068" t="n">
+        <v>2.034</v>
+      </c>
+      <c r="F1068" t="n">
+        <v>38809.7555</v>
+      </c>
+      <c r="G1068" t="n">
+        <v>-2145107.744372987</v>
+      </c>
+      <c r="H1068" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1068" t="inlineStr"/>
+      <c r="J1068" t="inlineStr"/>
+      <c r="K1068" t="inlineStr"/>
+      <c r="L1068" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1068" t="inlineStr"/>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="1" t="n">
+        <v>1067</v>
+      </c>
+      <c r="B1069" t="n">
+        <v>2.047</v>
+      </c>
+      <c r="C1069" t="n">
+        <v>2.046</v>
+      </c>
+      <c r="D1069" t="n">
+        <v>2.047</v>
+      </c>
+      <c r="E1069" t="n">
+        <v>2.046</v>
+      </c>
+      <c r="F1069" t="n">
+        <v>39224.7761</v>
+      </c>
+      <c r="G1069" t="n">
+        <v>-2184332.520472987</v>
+      </c>
+      <c r="H1069" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1069" t="inlineStr"/>
+      <c r="J1069" t="inlineStr"/>
+      <c r="K1069" t="inlineStr"/>
+      <c r="L1069" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1069" t="inlineStr"/>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="1" t="n">
+        <v>1068</v>
+      </c>
+      <c r="B1070" t="n">
+        <v>2.048</v>
+      </c>
+      <c r="C1070" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="D1070" t="n">
+        <v>2.048</v>
+      </c>
+      <c r="E1070" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="F1070" t="n">
+        <v>33793.2936</v>
+      </c>
+      <c r="G1070" t="n">
+        <v>-2218125.814072987</v>
+      </c>
+      <c r="H1070" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1070" t="inlineStr"/>
+      <c r="J1070" t="inlineStr"/>
+      <c r="K1070" t="inlineStr"/>
+      <c r="L1070" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1070" t="inlineStr"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="1" t="n">
+        <v>1069</v>
+      </c>
+      <c r="B1071" t="n">
+        <v>2.041</v>
+      </c>
+      <c r="C1071" t="n">
+        <v>2.044</v>
+      </c>
+      <c r="D1071" t="n">
+        <v>2.044</v>
+      </c>
+      <c r="E1071" t="n">
+        <v>2.041</v>
+      </c>
+      <c r="F1071" t="n">
+        <v>42080.9275</v>
+      </c>
+      <c r="G1071" t="n">
+        <v>-2260206.741572987</v>
+      </c>
+      <c r="H1071" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1071" t="inlineStr"/>
+      <c r="J1071" t="inlineStr"/>
+      <c r="K1071" t="inlineStr"/>
+      <c r="L1071" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1071" t="inlineStr"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="1" t="n">
+        <v>1070</v>
+      </c>
+      <c r="B1072" t="n">
+        <v>2.043</v>
+      </c>
+      <c r="C1072" t="n">
+        <v>2.038</v>
+      </c>
+      <c r="D1072" t="n">
+        <v>2.043</v>
+      </c>
+      <c r="E1072" t="n">
+        <v>2.038</v>
+      </c>
+      <c r="F1072" t="n">
+        <v>36064.008</v>
+      </c>
+      <c r="G1072" t="n">
+        <v>-2296270.749572987</v>
+      </c>
+      <c r="H1072" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1072" t="inlineStr"/>
+      <c r="J1072" t="inlineStr"/>
+      <c r="K1072" t="inlineStr"/>
+      <c r="L1072" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1072" t="inlineStr"/>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="1" t="n">
+        <v>1071</v>
+      </c>
+      <c r="B1073" t="n">
+        <v>2.044</v>
+      </c>
+      <c r="C1073" t="n">
+        <v>2.047</v>
+      </c>
+      <c r="D1073" t="n">
+        <v>2.047</v>
+      </c>
+      <c r="E1073" t="n">
+        <v>2.033</v>
+      </c>
+      <c r="F1073" t="n">
+        <v>67626.01149999999</v>
+      </c>
+      <c r="G1073" t="n">
+        <v>-2228644.738072987</v>
+      </c>
+      <c r="H1073" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1073" t="inlineStr"/>
+      <c r="J1073" t="inlineStr"/>
+      <c r="K1073" t="inlineStr"/>
+      <c r="L1073" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1073" t="inlineStr"/>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="1" t="n">
+        <v>1072</v>
+      </c>
+      <c r="B1074" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="C1074" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="D1074" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="E1074" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="F1074" t="n">
+        <v>23277.5638</v>
+      </c>
+      <c r="G1074" t="n">
+        <v>-2251922.301872987</v>
+      </c>
+      <c r="H1074" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1074" t="inlineStr"/>
+      <c r="J1074" t="inlineStr"/>
+      <c r="K1074" t="inlineStr"/>
+      <c r="L1074" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1074" t="inlineStr"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="1" t="n">
+        <v>1073</v>
+      </c>
+      <c r="B1075" t="n">
+        <v>2.032</v>
+      </c>
+      <c r="C1075" t="n">
+        <v>2.036</v>
+      </c>
+      <c r="D1075" t="n">
+        <v>2.036</v>
+      </c>
+      <c r="E1075" t="n">
+        <v>2.032</v>
+      </c>
+      <c r="F1075" t="n">
+        <v>42176.8952</v>
+      </c>
+      <c r="G1075" t="n">
+        <v>-2294099.197072987</v>
+      </c>
+      <c r="H1075" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1075" t="inlineStr"/>
+      <c r="J1075" t="inlineStr"/>
+      <c r="K1075" t="inlineStr"/>
+      <c r="L1075" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1075" t="inlineStr"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="1" t="n">
+        <v>1074</v>
+      </c>
+      <c r="B1076" t="n">
+        <v>2.046</v>
+      </c>
+      <c r="C1076" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="D1076" t="n">
+        <v>2.046</v>
+      </c>
+      <c r="E1076" t="n">
+        <v>2.045</v>
+      </c>
+      <c r="F1076" t="n">
+        <v>48716.3893</v>
+      </c>
+      <c r="G1076" t="n">
+        <v>-2245382.807772987</v>
+      </c>
+      <c r="H1076" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1076" t="inlineStr"/>
+      <c r="J1076" t="inlineStr"/>
+      <c r="K1076" t="inlineStr"/>
+      <c r="L1076" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1076" t="inlineStr"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="1" t="n">
+        <v>1075</v>
+      </c>
+      <c r="B1077" t="n">
+        <v>2.038</v>
+      </c>
+      <c r="C1077" t="n">
+        <v>2.037</v>
+      </c>
+      <c r="D1077" t="n">
+        <v>2.038</v>
+      </c>
+      <c r="E1077" t="n">
+        <v>2.037</v>
+      </c>
+      <c r="F1077" t="n">
+        <v>38565.2751</v>
+      </c>
+      <c r="G1077" t="n">
+        <v>-2283948.082872987</v>
+      </c>
+      <c r="H1077" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1077" t="inlineStr"/>
+      <c r="J1077" t="inlineStr"/>
+      <c r="K1077" t="inlineStr"/>
+      <c r="L1077" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1077" t="inlineStr"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="1" t="n">
+        <v>1076</v>
+      </c>
+      <c r="B1078" t="n">
+        <v>2.033</v>
+      </c>
+      <c r="C1078" t="n">
+        <v>2.033</v>
+      </c>
+      <c r="D1078" t="n">
+        <v>2.033</v>
+      </c>
+      <c r="E1078" t="n">
+        <v>2.033</v>
+      </c>
+      <c r="F1078" t="n">
+        <v>27120.057</v>
+      </c>
+      <c r="G1078" t="n">
+        <v>-2311068.139872987</v>
+      </c>
+      <c r="H1078" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1078" t="inlineStr"/>
+      <c r="J1078" t="inlineStr"/>
+      <c r="K1078" t="inlineStr"/>
+      <c r="L1078" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1078" t="inlineStr"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="1" t="n">
+        <v>1077</v>
+      </c>
+      <c r="B1079" t="n">
+        <v>2.033</v>
+      </c>
+      <c r="C1079" t="n">
+        <v>2.038</v>
+      </c>
+      <c r="D1079" t="n">
+        <v>2.038</v>
+      </c>
+      <c r="E1079" t="n">
+        <v>2.033</v>
+      </c>
+      <c r="F1079" t="n">
+        <v>57974.0396</v>
+      </c>
+      <c r="G1079" t="n">
+        <v>-2253094.100272988</v>
+      </c>
+      <c r="H1079" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1079" t="inlineStr"/>
+      <c r="J1079" t="inlineStr"/>
+      <c r="K1079" t="inlineStr"/>
+      <c r="L1079" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1079" t="inlineStr"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="1" t="n">
+        <v>1078</v>
+      </c>
+      <c r="B1080" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="C1080" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="D1080" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="E1080" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="F1080" t="n">
+        <v>16009.115</v>
+      </c>
+      <c r="G1080" t="n">
+        <v>-2237084.985272987</v>
+      </c>
+      <c r="H1080" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1080" t="inlineStr"/>
+      <c r="J1080" t="inlineStr"/>
+      <c r="K1080" t="inlineStr"/>
+      <c r="L1080" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1080" t="inlineStr"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="1" t="n">
+        <v>1079</v>
+      </c>
+      <c r="B1081" t="n">
+        <v>2.037</v>
+      </c>
+      <c r="C1081" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="D1081" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="E1081" t="n">
+        <v>2.034</v>
+      </c>
+      <c r="F1081" t="n">
+        <v>53564.0117</v>
+      </c>
+      <c r="G1081" t="n">
+        <v>-2183520.973572987</v>
+      </c>
+      <c r="H1081" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1081" t="inlineStr"/>
+      <c r="J1081" t="inlineStr"/>
+      <c r="K1081" t="inlineStr"/>
+      <c r="L1081" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1081" t="inlineStr"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="1" t="n">
+        <v>1080</v>
+      </c>
+      <c r="B1082" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="C1082" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="D1082" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="E1082" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="F1082" t="n">
+        <v>34967.8106</v>
+      </c>
+      <c r="G1082" t="n">
+        <v>-2218488.784172987</v>
+      </c>
+      <c r="H1082" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1082" t="inlineStr"/>
+      <c r="J1082" t="inlineStr"/>
+      <c r="K1082" t="inlineStr"/>
+      <c r="L1082" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1082" t="inlineStr"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="1" t="n">
+        <v>1081</v>
+      </c>
+      <c r="B1083" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="C1083" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="D1083" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="E1083" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="F1083" t="n">
+        <v>16389.732</v>
+      </c>
+      <c r="G1083" t="n">
+        <v>-2218488.784172987</v>
+      </c>
+      <c r="H1083" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1083" t="inlineStr"/>
+      <c r="J1083" t="inlineStr"/>
+      <c r="K1083" t="inlineStr"/>
+      <c r="L1083" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1083" t="inlineStr"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="1" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B1084" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="C1084" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="D1084" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="E1084" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="F1084" t="n">
+        <v>31838.0909</v>
+      </c>
+      <c r="G1084" t="n">
+        <v>-2218488.784172987</v>
+      </c>
+      <c r="H1084" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1084" t="inlineStr"/>
+      <c r="J1084" t="inlineStr"/>
+      <c r="K1084" t="inlineStr"/>
+      <c r="L1084" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1084" t="inlineStr"/>
+    </row>
+    <row r="1085">
+      <c r="A1085" s="1" t="n">
+        <v>1083</v>
+      </c>
+      <c r="B1085" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="C1085" t="n">
+        <v>2.038</v>
+      </c>
+      <c r="D1085" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="E1085" t="n">
+        <v>2.038</v>
+      </c>
+      <c r="F1085" t="n">
+        <v>54616.7471</v>
+      </c>
+      <c r="G1085" t="n">
+        <v>-2273105.531272987</v>
+      </c>
+      <c r="H1085" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1085" t="inlineStr"/>
+      <c r="J1085" t="inlineStr"/>
+      <c r="K1085" t="inlineStr"/>
+      <c r="L1085" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1085" t="inlineStr"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="1" t="n">
+        <v>1084</v>
+      </c>
+      <c r="B1086" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="C1086" t="n">
+        <v>2.038</v>
+      </c>
+      <c r="D1086" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="E1086" t="n">
+        <v>2.038</v>
+      </c>
+      <c r="F1086" t="n">
+        <v>52461.3467</v>
+      </c>
+      <c r="G1086" t="n">
+        <v>-2273105.531272987</v>
+      </c>
+      <c r="H1086" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1086" t="inlineStr"/>
+      <c r="J1086" t="inlineStr"/>
+      <c r="K1086" t="inlineStr"/>
+      <c r="L1086" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1086" t="inlineStr"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="1" t="n">
+        <v>1085</v>
+      </c>
+      <c r="B1087" t="n">
+        <v>2.038</v>
+      </c>
+      <c r="C1087" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="D1087" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="E1087" t="n">
+        <v>2.038</v>
+      </c>
+      <c r="F1087" t="n">
+        <v>41337.6454</v>
+      </c>
+      <c r="G1087" t="n">
+        <v>-2231767.885872987</v>
+      </c>
+      <c r="H1087" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1087" t="inlineStr"/>
+      <c r="J1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr"/>
+      <c r="L1087" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1087" t="inlineStr"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="1" t="n">
+        <v>1086</v>
+      </c>
+      <c r="B1088" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="C1088" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="D1088" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="E1088" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="F1088" t="n">
+        <v>50762.154</v>
+      </c>
+      <c r="G1088" t="n">
+        <v>-2231767.885872987</v>
+      </c>
+      <c r="H1088" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1088" t="inlineStr"/>
+      <c r="J1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr"/>
+      <c r="L1088" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1088" t="inlineStr"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="1" t="n">
+        <v>1087</v>
+      </c>
+      <c r="B1089" t="n">
+        <v>2.034</v>
+      </c>
+      <c r="C1089" t="n">
+        <v>2.034</v>
+      </c>
+      <c r="D1089" t="n">
+        <v>2.034</v>
+      </c>
+      <c r="E1089" t="n">
+        <v>2.034</v>
+      </c>
+      <c r="F1089" t="n">
+        <v>25799.6512</v>
+      </c>
+      <c r="G1089" t="n">
+        <v>-2257567.537072987</v>
+      </c>
+      <c r="H1089" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1089" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="J1089" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="K1089" t="inlineStr"/>
+      <c r="L1089" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1089" t="inlineStr"/>
+    </row>
+    <row r="1090">
+      <c r="A1090" s="1" t="n">
+        <v>1088</v>
+      </c>
+      <c r="B1090" t="n">
+        <v>2.037</v>
+      </c>
+      <c r="C1090" t="n">
+        <v>2.037</v>
+      </c>
+      <c r="D1090" t="n">
+        <v>2.037</v>
+      </c>
+      <c r="E1090" t="n">
+        <v>2.037</v>
+      </c>
+      <c r="F1090" t="n">
+        <v>20577.1472</v>
+      </c>
+      <c r="G1090" t="n">
+        <v>-2236990.389872987</v>
+      </c>
+      <c r="H1090" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1090" t="n">
+        <v>2.034</v>
+      </c>
+      <c r="J1090" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="K1090" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L1042" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1042" t="inlineStr"/>
-    </row>
-    <row r="1043">
-      <c r="A1043" s="1" t="n">
-        <v>1041</v>
-      </c>
-      <c r="B1043" t="n">
-        <v>2.038</v>
-      </c>
-      <c r="C1043" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="D1043" t="n">
-        <v>2.038</v>
-      </c>
-      <c r="E1043" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="F1043" t="n">
-        <v>396639.7606</v>
-      </c>
-      <c r="G1043" t="n">
-        <v>-2490766.481772987</v>
-      </c>
-      <c r="H1043" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1043" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="J1043" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1043" t="inlineStr">
+      <c r="L1090" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1090" t="inlineStr"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="1" t="n">
+        <v>1089</v>
+      </c>
+      <c r="B1091" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="C1091" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="D1091" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="E1091" t="n">
+        <v>2.037</v>
+      </c>
+      <c r="F1091" t="n">
+        <v>295323.8395</v>
+      </c>
+      <c r="G1091" t="n">
+        <v>-1941666.550372987</v>
+      </c>
+      <c r="H1091" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1091" t="n">
+        <v>2.037</v>
+      </c>
+      <c r="J1091" t="n">
+        <v>2.039</v>
+      </c>
+      <c r="K1091" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L1043" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1043" t="inlineStr"/>
-    </row>
-    <row r="1044">
-      <c r="A1044" s="1" t="n">
-        <v>1042</v>
-      </c>
-      <c r="B1044" t="n">
-        <v>2.015</v>
-      </c>
-      <c r="C1044" t="n">
-        <v>2.038</v>
-      </c>
-      <c r="D1044" t="n">
-        <v>2.038</v>
-      </c>
-      <c r="E1044" t="n">
-        <v>2.015</v>
-      </c>
-      <c r="F1044" t="n">
-        <v>40037.9937</v>
-      </c>
-      <c r="G1044" t="n">
-        <v>-2450728.488072987</v>
-      </c>
-      <c r="H1044" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1044" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="J1044" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1044" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1044" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1044" t="inlineStr"/>
-    </row>
-    <row r="1045">
-      <c r="A1045" s="1" t="n">
-        <v>1043</v>
-      </c>
-      <c r="B1045" t="n">
-        <v>2.031</v>
-      </c>
-      <c r="C1045" t="n">
-        <v>2.013</v>
-      </c>
-      <c r="D1045" t="n">
-        <v>2.031</v>
-      </c>
-      <c r="E1045" t="n">
-        <v>2.013</v>
-      </c>
-      <c r="F1045" t="n">
-        <v>40994.5794</v>
-      </c>
-      <c r="G1045" t="n">
-        <v>-2491723.067472987</v>
-      </c>
-      <c r="H1045" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1045" t="n">
-        <v>2.038</v>
-      </c>
-      <c r="J1045" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1045" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1045" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1045" t="inlineStr"/>
-    </row>
-    <row r="1046">
-      <c r="A1046" s="1" t="n">
-        <v>1044</v>
-      </c>
-      <c r="B1046" t="n">
-        <v>2.013</v>
-      </c>
-      <c r="C1046" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="D1046" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="E1046" t="n">
-        <v>2.013</v>
-      </c>
-      <c r="F1046" t="n">
-        <v>41660.9707</v>
-      </c>
-      <c r="G1046" t="n">
-        <v>-2450062.096772987</v>
-      </c>
-      <c r="H1046" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1046" t="n">
-        <v>2.013</v>
-      </c>
-      <c r="J1046" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1046" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1046" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1046" t="inlineStr"/>
-    </row>
-    <row r="1047">
-      <c r="A1047" s="1" t="n">
-        <v>1045</v>
-      </c>
-      <c r="B1047" t="n">
-        <v>2.027</v>
-      </c>
-      <c r="C1047" t="n">
-        <v>2.018</v>
-      </c>
-      <c r="D1047" t="n">
-        <v>2.027</v>
-      </c>
-      <c r="E1047" t="n">
-        <v>2.018</v>
-      </c>
-      <c r="F1047" t="n">
-        <v>43404.2062</v>
-      </c>
-      <c r="G1047" t="n">
-        <v>-2493466.302972987</v>
-      </c>
-      <c r="H1047" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1047" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="J1047" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1047" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1047" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1047" t="inlineStr"/>
-    </row>
-    <row r="1048">
-      <c r="A1048" s="1" t="n">
-        <v>1046</v>
-      </c>
-      <c r="B1048" t="n">
-        <v>2.018</v>
-      </c>
-      <c r="C1048" t="n">
-        <v>2.017</v>
-      </c>
-      <c r="D1048" t="n">
-        <v>2.018</v>
-      </c>
-      <c r="E1048" t="n">
-        <v>2.017</v>
-      </c>
-      <c r="F1048" t="n">
-        <v>43734.2868</v>
-      </c>
-      <c r="G1048" t="n">
-        <v>-2537200.589772987</v>
-      </c>
-      <c r="H1048" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1048" t="n">
-        <v>2.018</v>
-      </c>
-      <c r="J1048" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1048" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1048" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1048" t="inlineStr"/>
-    </row>
-    <row r="1049">
-      <c r="A1049" s="1" t="n">
-        <v>1047</v>
-      </c>
-      <c r="B1049" t="n">
-        <v>2.018</v>
-      </c>
-      <c r="C1049" t="n">
-        <v>2.024</v>
-      </c>
-      <c r="D1049" t="n">
-        <v>2.024</v>
-      </c>
-      <c r="E1049" t="n">
-        <v>2.018</v>
-      </c>
-      <c r="F1049" t="n">
-        <v>41333.1104</v>
-      </c>
-      <c r="G1049" t="n">
-        <v>-2495867.479372987</v>
-      </c>
-      <c r="H1049" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1049" t="n">
-        <v>2.017</v>
-      </c>
-      <c r="J1049" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1049" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1049" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1049" t="inlineStr"/>
-    </row>
-    <row r="1050">
-      <c r="A1050" s="1" t="n">
-        <v>1048</v>
-      </c>
-      <c r="B1050" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="C1050" t="n">
-        <v>2.023</v>
-      </c>
-      <c r="D1050" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="E1050" t="n">
-        <v>2.023</v>
-      </c>
-      <c r="F1050" t="n">
-        <v>51200.1336</v>
-      </c>
-      <c r="G1050" t="n">
-        <v>-2547067.612972987</v>
-      </c>
-      <c r="H1050" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1050" t="n">
-        <v>2.024</v>
-      </c>
-      <c r="J1050" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1050" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1050" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1050" t="inlineStr"/>
-    </row>
-    <row r="1051">
-      <c r="A1051" s="1" t="n">
-        <v>1049</v>
-      </c>
-      <c r="B1051" t="n">
-        <v>2.032</v>
-      </c>
-      <c r="C1051" t="n">
-        <v>2.033</v>
-      </c>
-      <c r="D1051" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="E1051" t="n">
-        <v>2.032</v>
-      </c>
-      <c r="F1051" t="n">
-        <v>56598.6443</v>
-      </c>
-      <c r="G1051" t="n">
-        <v>-2490468.968672987</v>
-      </c>
-      <c r="H1051" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1051" t="n">
-        <v>2.023</v>
-      </c>
-      <c r="J1051" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1051" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1051" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1051" t="inlineStr"/>
-    </row>
-    <row r="1052">
-      <c r="A1052" s="1" t="n">
-        <v>1050</v>
-      </c>
-      <c r="B1052" t="n">
-        <v>2.023</v>
-      </c>
-      <c r="C1052" t="n">
-        <v>2.024</v>
-      </c>
-      <c r="D1052" t="n">
-        <v>2.024</v>
-      </c>
-      <c r="E1052" t="n">
-        <v>2.023</v>
-      </c>
-      <c r="F1052" t="n">
-        <v>41882.3324</v>
-      </c>
-      <c r="G1052" t="n">
-        <v>-2532351.301072987</v>
-      </c>
-      <c r="H1052" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1052" t="n">
-        <v>2.033</v>
-      </c>
-      <c r="J1052" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1052" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1052" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1052" t="inlineStr"/>
-    </row>
-    <row r="1053">
-      <c r="A1053" s="1" t="n">
-        <v>1051</v>
-      </c>
-      <c r="B1053" t="n">
-        <v>2.029</v>
-      </c>
-      <c r="C1053" t="n">
-        <v>2.029</v>
-      </c>
-      <c r="D1053" t="n">
-        <v>2.029</v>
-      </c>
-      <c r="E1053" t="n">
-        <v>2.029</v>
-      </c>
-      <c r="F1053" t="n">
-        <v>21200.6234</v>
-      </c>
-      <c r="G1053" t="n">
-        <v>-2511150.677672987</v>
-      </c>
-      <c r="H1053" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1053" t="n">
-        <v>2.024</v>
-      </c>
-      <c r="J1053" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1053" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1053" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1053" t="inlineStr"/>
-    </row>
-    <row r="1054">
-      <c r="A1054" s="1" t="n">
-        <v>1052</v>
-      </c>
-      <c r="B1054" t="n">
-        <v>2.034</v>
-      </c>
-      <c r="C1054" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="D1054" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="E1054" t="n">
-        <v>2.034</v>
-      </c>
-      <c r="F1054" t="n">
-        <v>63418.0619</v>
-      </c>
-      <c r="G1054" t="n">
-        <v>-2447732.615772987</v>
-      </c>
-      <c r="H1054" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1054" t="n">
-        <v>2.029</v>
-      </c>
-      <c r="J1054" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1054" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1054" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1054" t="inlineStr"/>
-    </row>
-    <row r="1055">
-      <c r="A1055" s="1" t="n">
-        <v>1053</v>
-      </c>
-      <c r="B1055" t="n">
-        <v>2.036</v>
-      </c>
-      <c r="C1055" t="n">
-        <v>2.034</v>
-      </c>
-      <c r="D1055" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="E1055" t="n">
-        <v>2.033</v>
-      </c>
-      <c r="F1055" t="n">
-        <v>104831.3185</v>
-      </c>
-      <c r="G1055" t="n">
-        <v>-2552563.934272987</v>
-      </c>
-      <c r="H1055" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1055" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="J1055" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1055" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1055" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1055" t="inlineStr"/>
-    </row>
-    <row r="1056">
-      <c r="A1056" s="1" t="n">
-        <v>1054</v>
-      </c>
-      <c r="B1056" t="n">
-        <v>2.029</v>
-      </c>
-      <c r="C1056" t="n">
-        <v>2.032</v>
-      </c>
-      <c r="D1056" t="n">
-        <v>2.032</v>
-      </c>
-      <c r="E1056" t="n">
-        <v>2.029</v>
-      </c>
-      <c r="F1056" t="n">
-        <v>41818.3122</v>
-      </c>
-      <c r="G1056" t="n">
-        <v>-2594382.246472987</v>
-      </c>
-      <c r="H1056" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1056" t="n">
-        <v>2.034</v>
-      </c>
-      <c r="J1056" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1056" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1056" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1056" t="inlineStr"/>
-    </row>
-    <row r="1057">
-      <c r="A1057" s="1" t="n">
-        <v>1055</v>
-      </c>
-      <c r="B1057" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="C1057" t="n">
-        <v>2.033</v>
-      </c>
-      <c r="D1057" t="n">
-        <v>2.033</v>
-      </c>
-      <c r="E1057" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="F1057" t="n">
-        <v>43231.122</v>
-      </c>
-      <c r="G1057" t="n">
-        <v>-2551151.124472987</v>
-      </c>
-      <c r="H1057" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1057" t="n">
-        <v>2.032</v>
-      </c>
-      <c r="J1057" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1057" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1057" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1057" t="inlineStr"/>
-    </row>
-    <row r="1058">
-      <c r="A1058" s="1" t="n">
-        <v>1056</v>
-      </c>
-      <c r="B1058" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="C1058" t="n">
-        <v>2.034</v>
-      </c>
-      <c r="D1058" t="n">
-        <v>2.034</v>
-      </c>
-      <c r="E1058" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="F1058" t="n">
-        <v>37038.7651</v>
-      </c>
-      <c r="G1058" t="n">
-        <v>-2514112.359372987</v>
-      </c>
-      <c r="H1058" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1058" t="n">
-        <v>2.033</v>
-      </c>
-      <c r="J1058" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1058" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1058" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1058" t="inlineStr"/>
-    </row>
-    <row r="1059">
-      <c r="A1059" s="1" t="n">
-        <v>1057</v>
-      </c>
-      <c r="B1059" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="C1059" t="n">
-        <v>2.035</v>
-      </c>
-      <c r="D1059" t="n">
-        <v>2.035</v>
-      </c>
-      <c r="E1059" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="F1059" t="n">
-        <v>68075.7105</v>
-      </c>
-      <c r="G1059" t="n">
-        <v>-2446036.648872987</v>
-      </c>
-      <c r="H1059" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1059" t="inlineStr"/>
-      <c r="J1059" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1059" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1059" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1059" t="inlineStr"/>
-    </row>
-    <row r="1060">
-      <c r="A1060" s="1" t="n">
-        <v>1058</v>
-      </c>
-      <c r="B1060" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="C1060" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="D1060" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="E1060" t="n">
-        <v>2.026</v>
-      </c>
-      <c r="F1060" t="n">
-        <v>62156.68</v>
-      </c>
-      <c r="G1060" t="n">
-        <v>-2383879.968872987</v>
-      </c>
-      <c r="H1060" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1060" t="n">
-        <v>2.035</v>
-      </c>
-      <c r="J1060" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1060" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1060" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1060" t="inlineStr"/>
-    </row>
-    <row r="1061">
-      <c r="A1061" s="1" t="n">
-        <v>1059</v>
-      </c>
-      <c r="B1061" t="n">
-        <v>2.023</v>
-      </c>
-      <c r="C1061" t="n">
-        <v>2.023</v>
-      </c>
-      <c r="D1061" t="n">
-        <v>2.023</v>
-      </c>
-      <c r="E1061" t="n">
-        <v>2.023</v>
-      </c>
-      <c r="F1061" t="n">
-        <v>33471.6351</v>
-      </c>
-      <c r="G1061" t="n">
-        <v>-2417351.603972987</v>
-      </c>
-      <c r="H1061" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1061" t="inlineStr"/>
-      <c r="J1061" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1061" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1061" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1061" t="inlineStr"/>
-    </row>
-    <row r="1062">
-      <c r="A1062" s="1" t="n">
-        <v>1060</v>
-      </c>
-      <c r="B1062" t="n">
-        <v>2.027</v>
-      </c>
-      <c r="C1062" t="n">
-        <v>2.031</v>
-      </c>
-      <c r="D1062" t="n">
-        <v>2.031</v>
-      </c>
-      <c r="E1062" t="n">
-        <v>2.027</v>
-      </c>
-      <c r="F1062" t="n">
-        <v>39733.2752</v>
-      </c>
-      <c r="G1062" t="n">
-        <v>-2377618.328772987</v>
-      </c>
-      <c r="H1062" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1062" t="n">
-        <v>2.023</v>
-      </c>
-      <c r="J1062" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1062" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1062" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1062" t="inlineStr"/>
-    </row>
-    <row r="1063">
-      <c r="A1063" s="1" t="n">
-        <v>1061</v>
-      </c>
-      <c r="B1063" t="n">
-        <v>2.027</v>
-      </c>
-      <c r="C1063" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="D1063" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="E1063" t="n">
-        <v>2.027</v>
-      </c>
-      <c r="F1063" t="n">
-        <v>41880.8852</v>
-      </c>
-      <c r="G1063" t="n">
-        <v>-2419499.213972987</v>
-      </c>
-      <c r="H1063" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1063" t="n">
-        <v>2.031</v>
-      </c>
-      <c r="J1063" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1063" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1063" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1063" t="inlineStr"/>
-    </row>
-    <row r="1064">
-      <c r="A1064" s="1" t="n">
-        <v>1062</v>
-      </c>
-      <c r="B1064" t="n">
-        <v>2.027</v>
-      </c>
-      <c r="C1064" t="n">
-        <v>2.036</v>
-      </c>
-      <c r="D1064" t="n">
-        <v>2.036</v>
-      </c>
-      <c r="E1064" t="n">
-        <v>2.027</v>
-      </c>
-      <c r="F1064" t="n">
-        <v>44019.3872</v>
-      </c>
-      <c r="G1064" t="n">
-        <v>-2375479.826772987</v>
-      </c>
-      <c r="H1064" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1064" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="J1064" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1064" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1064" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1064" t="inlineStr"/>
-    </row>
-    <row r="1065">
-      <c r="A1065" s="1" t="n">
-        <v>1063</v>
-      </c>
-      <c r="B1065" t="n">
-        <v>2.038</v>
-      </c>
-      <c r="C1065" t="n">
-        <v>2.038</v>
-      </c>
-      <c r="D1065" t="n">
-        <v>2.038</v>
-      </c>
-      <c r="E1065" t="n">
-        <v>2.038</v>
-      </c>
-      <c r="F1065" t="n">
-        <v>15474.9264</v>
-      </c>
-      <c r="G1065" t="n">
-        <v>-2360004.900372987</v>
-      </c>
-      <c r="H1065" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1065" t="n">
-        <v>2.036</v>
-      </c>
-      <c r="J1065" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1065" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1065" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1065" t="inlineStr"/>
-    </row>
-    <row r="1066">
-      <c r="A1066" s="1" t="n">
-        <v>1064</v>
-      </c>
-      <c r="B1066" t="n">
-        <v>2.036</v>
-      </c>
-      <c r="C1066" t="n">
-        <v>2.045</v>
-      </c>
-      <c r="D1066" t="n">
-        <v>2.045</v>
-      </c>
-      <c r="E1066" t="n">
-        <v>2.036</v>
-      </c>
-      <c r="F1066" t="n">
-        <v>140857.9795</v>
-      </c>
-      <c r="G1066" t="n">
-        <v>-2219146.920872987</v>
-      </c>
-      <c r="H1066" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1066" t="inlineStr"/>
-      <c r="J1066" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1066" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1066" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1066" t="inlineStr"/>
-    </row>
-    <row r="1067">
-      <c r="A1067" s="1" t="n">
-        <v>1065</v>
-      </c>
-      <c r="B1067" t="n">
-        <v>2.049</v>
-      </c>
-      <c r="C1067" t="n">
-        <v>2.047</v>
-      </c>
-      <c r="D1067" t="n">
-        <v>2.049</v>
-      </c>
-      <c r="E1067" t="n">
-        <v>2.047</v>
-      </c>
-      <c r="F1067" t="n">
-        <v>35229.421</v>
-      </c>
-      <c r="G1067" t="n">
-        <v>-2183917.499872987</v>
-      </c>
-      <c r="H1067" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1067" t="inlineStr"/>
-      <c r="J1067" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1067" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1067" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1067" t="inlineStr"/>
-    </row>
-    <row r="1068">
-      <c r="A1068" s="1" t="n">
-        <v>1066</v>
-      </c>
-      <c r="B1068" t="n">
-        <v>2.034</v>
-      </c>
-      <c r="C1068" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="D1068" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="E1068" t="n">
-        <v>2.034</v>
-      </c>
-      <c r="F1068" t="n">
-        <v>38809.7555</v>
-      </c>
-      <c r="G1068" t="n">
-        <v>-2145107.744372987</v>
-      </c>
-      <c r="H1068" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1068" t="inlineStr"/>
-      <c r="J1068" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1068" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1068" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1068" t="inlineStr"/>
-    </row>
-    <row r="1069">
-      <c r="A1069" s="1" t="n">
-        <v>1067</v>
-      </c>
-      <c r="B1069" t="n">
-        <v>2.047</v>
-      </c>
-      <c r="C1069" t="n">
-        <v>2.046</v>
-      </c>
-      <c r="D1069" t="n">
-        <v>2.047</v>
-      </c>
-      <c r="E1069" t="n">
-        <v>2.046</v>
-      </c>
-      <c r="F1069" t="n">
-        <v>39224.7761</v>
-      </c>
-      <c r="G1069" t="n">
-        <v>-2184332.520472987</v>
-      </c>
-      <c r="H1069" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1069" t="inlineStr"/>
-      <c r="J1069" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1069" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1069" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1069" t="inlineStr"/>
-    </row>
-    <row r="1070">
-      <c r="A1070" s="1" t="n">
-        <v>1068</v>
-      </c>
-      <c r="B1070" t="n">
-        <v>2.048</v>
-      </c>
-      <c r="C1070" t="n">
-        <v>2.045</v>
-      </c>
-      <c r="D1070" t="n">
-        <v>2.048</v>
-      </c>
-      <c r="E1070" t="n">
-        <v>2.045</v>
-      </c>
-      <c r="F1070" t="n">
-        <v>33793.2936</v>
-      </c>
-      <c r="G1070" t="n">
-        <v>-2218125.814072987</v>
-      </c>
-      <c r="H1070" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1070" t="inlineStr"/>
-      <c r="J1070" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1070" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1070" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1070" t="inlineStr"/>
-    </row>
-    <row r="1071">
-      <c r="A1071" s="1" t="n">
-        <v>1069</v>
-      </c>
-      <c r="B1071" t="n">
-        <v>2.041</v>
-      </c>
-      <c r="C1071" t="n">
-        <v>2.044</v>
-      </c>
-      <c r="D1071" t="n">
-        <v>2.044</v>
-      </c>
-      <c r="E1071" t="n">
-        <v>2.041</v>
-      </c>
-      <c r="F1071" t="n">
-        <v>42080.9275</v>
-      </c>
-      <c r="G1071" t="n">
-        <v>-2260206.741572987</v>
-      </c>
-      <c r="H1071" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1071" t="inlineStr"/>
-      <c r="J1071" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1071" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1071" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1071" t="inlineStr"/>
-    </row>
-    <row r="1072">
-      <c r="A1072" s="1" t="n">
-        <v>1070</v>
-      </c>
-      <c r="B1072" t="n">
-        <v>2.043</v>
-      </c>
-      <c r="C1072" t="n">
-        <v>2.038</v>
-      </c>
-      <c r="D1072" t="n">
-        <v>2.043</v>
-      </c>
-      <c r="E1072" t="n">
-        <v>2.038</v>
-      </c>
-      <c r="F1072" t="n">
-        <v>36064.008</v>
-      </c>
-      <c r="G1072" t="n">
-        <v>-2296270.749572987</v>
-      </c>
-      <c r="H1072" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1072" t="inlineStr"/>
-      <c r="J1072" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1072" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1072" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1072" t="inlineStr"/>
-    </row>
-    <row r="1073">
-      <c r="A1073" s="1" t="n">
-        <v>1071</v>
-      </c>
-      <c r="B1073" t="n">
-        <v>2.044</v>
-      </c>
-      <c r="C1073" t="n">
-        <v>2.047</v>
-      </c>
-      <c r="D1073" t="n">
-        <v>2.047</v>
-      </c>
-      <c r="E1073" t="n">
-        <v>2.033</v>
-      </c>
-      <c r="F1073" t="n">
-        <v>67626.01149999999</v>
-      </c>
-      <c r="G1073" t="n">
-        <v>-2228644.738072987</v>
-      </c>
-      <c r="H1073" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1073" t="inlineStr"/>
-      <c r="J1073" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1073" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1073" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1073" t="inlineStr"/>
-    </row>
-    <row r="1074">
-      <c r="A1074" s="1" t="n">
-        <v>1072</v>
-      </c>
-      <c r="B1074" t="n">
-        <v>2.045</v>
-      </c>
-      <c r="C1074" t="n">
-        <v>2.045</v>
-      </c>
-      <c r="D1074" t="n">
-        <v>2.045</v>
-      </c>
-      <c r="E1074" t="n">
-        <v>2.045</v>
-      </c>
-      <c r="F1074" t="n">
-        <v>23277.5638</v>
-      </c>
-      <c r="G1074" t="n">
-        <v>-2251922.301872987</v>
-      </c>
-      <c r="H1074" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1074" t="inlineStr"/>
-      <c r="J1074" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1074" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1074" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1074" t="inlineStr"/>
-    </row>
-    <row r="1075">
-      <c r="A1075" s="1" t="n">
-        <v>1073</v>
-      </c>
-      <c r="B1075" t="n">
-        <v>2.032</v>
-      </c>
-      <c r="C1075" t="n">
-        <v>2.036</v>
-      </c>
-      <c r="D1075" t="n">
-        <v>2.036</v>
-      </c>
-      <c r="E1075" t="n">
-        <v>2.032</v>
-      </c>
-      <c r="F1075" t="n">
-        <v>42176.8952</v>
-      </c>
-      <c r="G1075" t="n">
-        <v>-2294099.197072987</v>
-      </c>
-      <c r="H1075" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1075" t="inlineStr"/>
-      <c r="J1075" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1075" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1075" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1075" t="inlineStr"/>
-    </row>
-    <row r="1076">
-      <c r="A1076" s="1" t="n">
-        <v>1074</v>
-      </c>
-      <c r="B1076" t="n">
-        <v>2.046</v>
-      </c>
-      <c r="C1076" t="n">
-        <v>2.045</v>
-      </c>
-      <c r="D1076" t="n">
-        <v>2.046</v>
-      </c>
-      <c r="E1076" t="n">
-        <v>2.045</v>
-      </c>
-      <c r="F1076" t="n">
-        <v>48716.3893</v>
-      </c>
-      <c r="G1076" t="n">
-        <v>-2245382.807772987</v>
-      </c>
-      <c r="H1076" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1076" t="inlineStr"/>
-      <c r="J1076" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1076" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1076" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1076" t="inlineStr"/>
-    </row>
-    <row r="1077">
-      <c r="A1077" s="1" t="n">
-        <v>1075</v>
-      </c>
-      <c r="B1077" t="n">
-        <v>2.038</v>
-      </c>
-      <c r="C1077" t="n">
-        <v>2.037</v>
-      </c>
-      <c r="D1077" t="n">
-        <v>2.038</v>
-      </c>
-      <c r="E1077" t="n">
-        <v>2.037</v>
-      </c>
-      <c r="F1077" t="n">
-        <v>38565.2751</v>
-      </c>
-      <c r="G1077" t="n">
-        <v>-2283948.082872987</v>
-      </c>
-      <c r="H1077" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1077" t="inlineStr"/>
-      <c r="J1077" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1077" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1077" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1077" t="inlineStr"/>
-    </row>
-    <row r="1078">
-      <c r="A1078" s="1" t="n">
-        <v>1076</v>
-      </c>
-      <c r="B1078" t="n">
-        <v>2.033</v>
-      </c>
-      <c r="C1078" t="n">
-        <v>2.033</v>
-      </c>
-      <c r="D1078" t="n">
-        <v>2.033</v>
-      </c>
-      <c r="E1078" t="n">
-        <v>2.033</v>
-      </c>
-      <c r="F1078" t="n">
-        <v>27120.057</v>
-      </c>
-      <c r="G1078" t="n">
-        <v>-2311068.139872987</v>
-      </c>
-      <c r="H1078" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1078" t="inlineStr"/>
-      <c r="J1078" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1078" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1078" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1078" t="inlineStr"/>
-    </row>
-    <row r="1079">
-      <c r="A1079" s="1" t="n">
-        <v>1077</v>
-      </c>
-      <c r="B1079" t="n">
-        <v>2.033</v>
-      </c>
-      <c r="C1079" t="n">
-        <v>2.038</v>
-      </c>
-      <c r="D1079" t="n">
-        <v>2.038</v>
-      </c>
-      <c r="E1079" t="n">
-        <v>2.033</v>
-      </c>
-      <c r="F1079" t="n">
-        <v>57974.0396</v>
-      </c>
-      <c r="G1079" t="n">
-        <v>-2253094.100272988</v>
-      </c>
-      <c r="H1079" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1079" t="inlineStr"/>
-      <c r="J1079" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1079" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1079" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1079" t="inlineStr"/>
-    </row>
-    <row r="1080">
-      <c r="A1080" s="1" t="n">
-        <v>1078</v>
-      </c>
-      <c r="B1080" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="C1080" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="D1080" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="E1080" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="F1080" t="n">
-        <v>16009.115</v>
-      </c>
-      <c r="G1080" t="n">
-        <v>-2237084.985272987</v>
-      </c>
-      <c r="H1080" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1080" t="inlineStr"/>
-      <c r="J1080" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1080" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1080" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1080" t="inlineStr"/>
-    </row>
-    <row r="1081">
-      <c r="A1081" s="1" t="n">
-        <v>1079</v>
-      </c>
-      <c r="B1081" t="n">
-        <v>2.037</v>
-      </c>
-      <c r="C1081" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="D1081" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="E1081" t="n">
-        <v>2.034</v>
-      </c>
-      <c r="F1081" t="n">
-        <v>53564.0117</v>
-      </c>
-      <c r="G1081" t="n">
-        <v>-2183520.973572987</v>
-      </c>
-      <c r="H1081" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1081" t="inlineStr"/>
-      <c r="J1081" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1081" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1081" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1081" t="inlineStr"/>
-    </row>
-    <row r="1082">
-      <c r="A1082" s="1" t="n">
-        <v>1080</v>
-      </c>
-      <c r="B1082" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="C1082" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="D1082" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="E1082" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="F1082" t="n">
-        <v>34967.8106</v>
-      </c>
-      <c r="G1082" t="n">
-        <v>-2218488.784172987</v>
-      </c>
-      <c r="H1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1082" t="inlineStr"/>
-      <c r="J1082" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1082" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1082" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1082" t="inlineStr"/>
-    </row>
-    <row r="1083">
-      <c r="A1083" s="1" t="n">
-        <v>1081</v>
-      </c>
-      <c r="B1083" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="C1083" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="D1083" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="E1083" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="F1083" t="n">
-        <v>16389.732</v>
-      </c>
-      <c r="G1083" t="n">
-        <v>-2218488.784172987</v>
-      </c>
-      <c r="H1083" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1083" t="inlineStr"/>
-      <c r="J1083" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1083" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1083" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1083" t="inlineStr"/>
-    </row>
-    <row r="1084">
-      <c r="A1084" s="1" t="n">
-        <v>1082</v>
-      </c>
-      <c r="B1084" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="C1084" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="D1084" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="E1084" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="F1084" t="n">
-        <v>31838.0909</v>
-      </c>
-      <c r="G1084" t="n">
-        <v>-2218488.784172987</v>
-      </c>
-      <c r="H1084" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1084" t="inlineStr"/>
-      <c r="J1084" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1084" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1084" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1084" t="inlineStr"/>
-    </row>
-    <row r="1085">
-      <c r="A1085" s="1" t="n">
-        <v>1083</v>
-      </c>
-      <c r="B1085" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="C1085" t="n">
-        <v>2.038</v>
-      </c>
-      <c r="D1085" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="E1085" t="n">
-        <v>2.038</v>
-      </c>
-      <c r="F1085" t="n">
-        <v>54616.7471</v>
-      </c>
-      <c r="G1085" t="n">
-        <v>-2273105.531272987</v>
-      </c>
-      <c r="H1085" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1085" t="inlineStr"/>
-      <c r="J1085" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1085" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1085" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1085" t="inlineStr"/>
-    </row>
-    <row r="1086">
-      <c r="A1086" s="1" t="n">
-        <v>1084</v>
-      </c>
-      <c r="B1086" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="C1086" t="n">
-        <v>2.038</v>
-      </c>
-      <c r="D1086" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="E1086" t="n">
-        <v>2.038</v>
-      </c>
-      <c r="F1086" t="n">
-        <v>52461.3467</v>
-      </c>
-      <c r="G1086" t="n">
-        <v>-2273105.531272987</v>
-      </c>
-      <c r="H1086" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1086" t="inlineStr"/>
-      <c r="J1086" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1086" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1086" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1086" t="inlineStr"/>
-    </row>
-    <row r="1087">
-      <c r="A1087" s="1" t="n">
-        <v>1085</v>
-      </c>
-      <c r="B1087" t="n">
-        <v>2.038</v>
-      </c>
-      <c r="C1087" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="D1087" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="E1087" t="n">
-        <v>2.038</v>
-      </c>
-      <c r="F1087" t="n">
-        <v>41337.6454</v>
-      </c>
-      <c r="G1087" t="n">
-        <v>-2231767.885872987</v>
-      </c>
-      <c r="H1087" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1087" t="inlineStr"/>
-      <c r="J1087" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1087" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1087" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1087" t="inlineStr"/>
-    </row>
-    <row r="1088">
-      <c r="A1088" s="1" t="n">
-        <v>1086</v>
-      </c>
-      <c r="B1088" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="C1088" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="D1088" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="E1088" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="F1088" t="n">
-        <v>50762.154</v>
-      </c>
-      <c r="G1088" t="n">
-        <v>-2231767.885872987</v>
-      </c>
-      <c r="H1088" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1088" t="inlineStr"/>
-      <c r="J1088" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1088" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1088" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1088" t="inlineStr"/>
-    </row>
-    <row r="1089">
-      <c r="A1089" s="1" t="n">
-        <v>1087</v>
-      </c>
-      <c r="B1089" t="n">
-        <v>2.034</v>
-      </c>
-      <c r="C1089" t="n">
-        <v>2.034</v>
-      </c>
-      <c r="D1089" t="n">
-        <v>2.034</v>
-      </c>
-      <c r="E1089" t="n">
-        <v>2.034</v>
-      </c>
-      <c r="F1089" t="n">
-        <v>25799.6512</v>
-      </c>
-      <c r="G1089" t="n">
-        <v>-2257567.537072987</v>
-      </c>
-      <c r="H1089" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1089" t="inlineStr"/>
-      <c r="J1089" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1089" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1089" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1089" t="inlineStr"/>
-    </row>
-    <row r="1090">
-      <c r="A1090" s="1" t="n">
-        <v>1088</v>
-      </c>
-      <c r="B1090" t="n">
-        <v>2.037</v>
-      </c>
-      <c r="C1090" t="n">
-        <v>2.037</v>
-      </c>
-      <c r="D1090" t="n">
-        <v>2.037</v>
-      </c>
-      <c r="E1090" t="n">
-        <v>2.037</v>
-      </c>
-      <c r="F1090" t="n">
-        <v>20577.1472</v>
-      </c>
-      <c r="G1090" t="n">
-        <v>-2236990.389872987</v>
-      </c>
-      <c r="H1090" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1090" t="inlineStr"/>
-      <c r="J1090" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1090" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L1090" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1090" t="inlineStr"/>
-    </row>
-    <row r="1091">
-      <c r="A1091" s="1" t="n">
-        <v>1089</v>
-      </c>
-      <c r="B1091" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="C1091" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="D1091" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="E1091" t="n">
-        <v>2.037</v>
-      </c>
-      <c r="F1091" t="n">
-        <v>295323.8395</v>
-      </c>
-      <c r="G1091" t="n">
-        <v>-1941666.550372987</v>
-      </c>
-      <c r="H1091" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1091" t="inlineStr"/>
-      <c r="J1091" t="n">
-        <v>2.028</v>
-      </c>
-      <c r="K1091" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L1091" t="n">
         <v>1</v>
       </c>
@@ -36769,11 +36441,13 @@
         <v>-2006534.168972987</v>
       </c>
       <c r="H1092" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1092" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1092" t="n">
+        <v>2.04</v>
+      </c>
       <c r="J1092" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1092" t="inlineStr">
         <is>
@@ -36808,11 +36482,13 @@
         <v>-2006534.168972987</v>
       </c>
       <c r="H1093" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1093" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1093" t="n">
+        <v>2.039</v>
+      </c>
       <c r="J1093" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1093" t="inlineStr">
         <is>
@@ -36847,11 +36523,13 @@
         <v>-1913274.428972987</v>
       </c>
       <c r="H1094" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1094" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1094" t="n">
+        <v>2.039</v>
+      </c>
       <c r="J1094" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1094" t="inlineStr">
         <is>
@@ -36886,11 +36564,13 @@
         <v>-1996875.737872987</v>
       </c>
       <c r="H1095" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1095" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1095" t="n">
+        <v>2.04</v>
+      </c>
       <c r="J1095" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1095" t="inlineStr">
         <is>
@@ -36925,11 +36605,13 @@
         <v>-1893826.237972987</v>
       </c>
       <c r="H1096" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1096" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1096" t="n">
+        <v>2.039</v>
+      </c>
       <c r="J1096" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1096" t="inlineStr">
         <is>
@@ -36964,11 +36646,13 @@
         <v>-1964125.522572987</v>
       </c>
       <c r="H1097" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1097" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1097" t="n">
+        <v>2.044</v>
+      </c>
       <c r="J1097" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1097" t="inlineStr">
         <is>
@@ -37003,11 +36687,13 @@
         <v>-2015269.854472987</v>
       </c>
       <c r="H1098" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1098" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1098" t="n">
+        <v>2.043</v>
+      </c>
       <c r="J1098" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1098" t="inlineStr">
         <is>
@@ -37042,11 +36728,13 @@
         <v>-2015269.854472987</v>
       </c>
       <c r="H1099" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1099" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1099" t="n">
+        <v>2.042</v>
+      </c>
       <c r="J1099" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1099" t="inlineStr">
         <is>
@@ -37081,11 +36769,13 @@
         <v>-2060518.568672987</v>
       </c>
       <c r="H1100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1100" t="n">
+        <v>2.042</v>
+      </c>
       <c r="J1100" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1100" t="inlineStr">
         <is>
@@ -37120,11 +36810,13 @@
         <v>-1945258.034872987</v>
       </c>
       <c r="H1101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1101" t="n">
+        <v>2.041</v>
+      </c>
       <c r="J1101" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1101" t="inlineStr">
         <is>
@@ -37159,11 +36851,13 @@
         <v>-1990078.206172987</v>
       </c>
       <c r="H1102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1102" t="n">
+        <v>2.044</v>
+      </c>
       <c r="J1102" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1102" t="inlineStr">
         <is>
@@ -37198,11 +36892,13 @@
         <v>-1078451.056672987</v>
       </c>
       <c r="H1103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1103" t="n">
+        <v>2.043</v>
+      </c>
       <c r="J1103" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1103" t="inlineStr">
         <is>
@@ -37241,7 +36937,7 @@
       </c>
       <c r="I1104" t="inlineStr"/>
       <c r="J1104" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1104" t="inlineStr">
         <is>
@@ -37280,7 +36976,7 @@
       </c>
       <c r="I1105" t="inlineStr"/>
       <c r="J1105" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1105" t="inlineStr">
         <is>
@@ -37319,7 +37015,7 @@
       </c>
       <c r="I1106" t="inlineStr"/>
       <c r="J1106" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1106" t="inlineStr">
         <is>
@@ -37358,7 +37054,7 @@
       </c>
       <c r="I1107" t="inlineStr"/>
       <c r="J1107" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1107" t="inlineStr">
         <is>
@@ -37397,7 +37093,7 @@
       </c>
       <c r="I1108" t="inlineStr"/>
       <c r="J1108" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1108" t="inlineStr">
         <is>
@@ -37436,7 +37132,7 @@
       </c>
       <c r="I1109" t="inlineStr"/>
       <c r="J1109" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1109" t="inlineStr">
         <is>
@@ -37475,7 +37171,7 @@
       </c>
       <c r="I1110" t="inlineStr"/>
       <c r="J1110" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1110" t="inlineStr">
         <is>
@@ -37514,7 +37210,7 @@
       </c>
       <c r="I1111" t="inlineStr"/>
       <c r="J1111" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1111" t="inlineStr">
         <is>
@@ -37553,7 +37249,7 @@
       </c>
       <c r="I1112" t="inlineStr"/>
       <c r="J1112" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1112" t="inlineStr">
         <is>
@@ -37592,7 +37288,7 @@
       </c>
       <c r="I1113" t="inlineStr"/>
       <c r="J1113" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1113" t="inlineStr">
         <is>
@@ -37631,7 +37327,7 @@
       </c>
       <c r="I1114" t="inlineStr"/>
       <c r="J1114" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1114" t="inlineStr">
         <is>
@@ -37670,7 +37366,7 @@
       </c>
       <c r="I1115" t="inlineStr"/>
       <c r="J1115" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1115" t="inlineStr">
         <is>
@@ -37709,7 +37405,7 @@
       </c>
       <c r="I1116" t="inlineStr"/>
       <c r="J1116" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1116" t="inlineStr">
         <is>
@@ -37748,7 +37444,7 @@
       </c>
       <c r="I1117" t="inlineStr"/>
       <c r="J1117" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1117" t="inlineStr">
         <is>
@@ -37787,7 +37483,7 @@
       </c>
       <c r="I1118" t="inlineStr"/>
       <c r="J1118" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1118" t="inlineStr">
         <is>
@@ -37826,7 +37522,7 @@
       </c>
       <c r="I1119" t="inlineStr"/>
       <c r="J1119" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1119" t="inlineStr">
         <is>
@@ -37865,7 +37561,7 @@
       </c>
       <c r="I1120" t="inlineStr"/>
       <c r="J1120" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1120" t="inlineStr">
         <is>
@@ -37904,7 +37600,7 @@
       </c>
       <c r="I1121" t="inlineStr"/>
       <c r="J1121" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1121" t="inlineStr">
         <is>
@@ -37943,7 +37639,7 @@
       </c>
       <c r="I1122" t="inlineStr"/>
       <c r="J1122" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1122" t="inlineStr">
         <is>
@@ -37982,7 +37678,7 @@
       </c>
       <c r="I1123" t="inlineStr"/>
       <c r="J1123" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1123" t="inlineStr">
         <is>
@@ -38021,7 +37717,7 @@
       </c>
       <c r="I1124" t="inlineStr"/>
       <c r="J1124" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1124" t="inlineStr">
         <is>
@@ -38060,7 +37756,7 @@
       </c>
       <c r="I1125" t="inlineStr"/>
       <c r="J1125" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1125" t="inlineStr">
         <is>
@@ -38099,7 +37795,7 @@
       </c>
       <c r="I1126" t="inlineStr"/>
       <c r="J1126" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1126" t="inlineStr">
         <is>
@@ -38138,7 +37834,7 @@
       </c>
       <c r="I1127" t="inlineStr"/>
       <c r="J1127" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1127" t="inlineStr">
         <is>
@@ -38177,7 +37873,7 @@
       </c>
       <c r="I1128" t="inlineStr"/>
       <c r="J1128" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1128" t="inlineStr">
         <is>
@@ -38216,7 +37912,7 @@
       </c>
       <c r="I1129" t="inlineStr"/>
       <c r="J1129" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1129" t="inlineStr">
         <is>
@@ -38255,7 +37951,7 @@
       </c>
       <c r="I1130" t="inlineStr"/>
       <c r="J1130" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1130" t="inlineStr">
         <is>
@@ -38294,7 +37990,7 @@
       </c>
       <c r="I1131" t="inlineStr"/>
       <c r="J1131" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1131" t="inlineStr">
         <is>
@@ -38333,7 +38029,7 @@
       </c>
       <c r="I1132" t="inlineStr"/>
       <c r="J1132" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1132" t="inlineStr">
         <is>
@@ -38372,7 +38068,7 @@
       </c>
       <c r="I1133" t="inlineStr"/>
       <c r="J1133" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1133" t="inlineStr">
         <is>
@@ -38411,7 +38107,7 @@
       </c>
       <c r="I1134" t="inlineStr"/>
       <c r="J1134" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1134" t="inlineStr">
         <is>
@@ -38450,7 +38146,7 @@
       </c>
       <c r="I1135" t="inlineStr"/>
       <c r="J1135" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1135" t="inlineStr">
         <is>
@@ -38489,7 +38185,7 @@
       </c>
       <c r="I1136" t="inlineStr"/>
       <c r="J1136" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1136" t="inlineStr">
         <is>
@@ -38528,7 +38224,7 @@
       </c>
       <c r="I1137" t="inlineStr"/>
       <c r="J1137" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1137" t="inlineStr">
         <is>
@@ -38567,7 +38263,7 @@
       </c>
       <c r="I1138" t="inlineStr"/>
       <c r="J1138" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1138" t="inlineStr">
         <is>
@@ -38606,7 +38302,7 @@
       </c>
       <c r="I1139" t="inlineStr"/>
       <c r="J1139" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1139" t="inlineStr">
         <is>
@@ -38645,7 +38341,7 @@
       </c>
       <c r="I1140" t="inlineStr"/>
       <c r="J1140" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1140" t="inlineStr">
         <is>
@@ -38684,7 +38380,7 @@
       </c>
       <c r="I1141" t="inlineStr"/>
       <c r="J1141" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1141" t="inlineStr">
         <is>
@@ -38723,7 +38419,7 @@
       </c>
       <c r="I1142" t="inlineStr"/>
       <c r="J1142" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1142" t="inlineStr">
         <is>
@@ -38762,7 +38458,7 @@
       </c>
       <c r="I1143" t="inlineStr"/>
       <c r="J1143" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1143" t="inlineStr">
         <is>
@@ -38801,7 +38497,7 @@
       </c>
       <c r="I1144" t="inlineStr"/>
       <c r="J1144" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1144" t="inlineStr">
         <is>
@@ -38840,7 +38536,7 @@
       </c>
       <c r="I1145" t="inlineStr"/>
       <c r="J1145" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1145" t="inlineStr">
         <is>
@@ -38879,7 +38575,7 @@
       </c>
       <c r="I1146" t="inlineStr"/>
       <c r="J1146" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1146" t="inlineStr">
         <is>
@@ -38918,7 +38614,7 @@
       </c>
       <c r="I1147" t="inlineStr"/>
       <c r="J1147" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1147" t="inlineStr">
         <is>
@@ -38957,7 +38653,7 @@
       </c>
       <c r="I1148" t="inlineStr"/>
       <c r="J1148" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1148" t="inlineStr">
         <is>
@@ -38996,7 +38692,7 @@
       </c>
       <c r="I1149" t="inlineStr"/>
       <c r="J1149" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1149" t="inlineStr">
         <is>
@@ -39035,7 +38731,7 @@
       </c>
       <c r="I1150" t="inlineStr"/>
       <c r="J1150" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1150" t="inlineStr">
         <is>
@@ -39074,7 +38770,7 @@
       </c>
       <c r="I1151" t="inlineStr"/>
       <c r="J1151" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1151" t="inlineStr">
         <is>
@@ -39113,7 +38809,7 @@
       </c>
       <c r="I1152" t="inlineStr"/>
       <c r="J1152" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1152" t="inlineStr">
         <is>
@@ -39152,7 +38848,7 @@
       </c>
       <c r="I1153" t="inlineStr"/>
       <c r="J1153" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1153" t="inlineStr">
         <is>
@@ -39191,7 +38887,7 @@
       </c>
       <c r="I1154" t="inlineStr"/>
       <c r="J1154" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1154" t="inlineStr">
         <is>
@@ -39230,7 +38926,7 @@
       </c>
       <c r="I1155" t="inlineStr"/>
       <c r="J1155" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1155" t="inlineStr">
         <is>
@@ -39269,7 +38965,7 @@
       </c>
       <c r="I1156" t="inlineStr"/>
       <c r="J1156" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1156" t="inlineStr">
         <is>
@@ -39308,7 +39004,7 @@
       </c>
       <c r="I1157" t="inlineStr"/>
       <c r="J1157" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1157" t="inlineStr">
         <is>
@@ -39347,7 +39043,7 @@
       </c>
       <c r="I1158" t="inlineStr"/>
       <c r="J1158" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1158" t="inlineStr">
         <is>
@@ -39386,7 +39082,7 @@
       </c>
       <c r="I1159" t="inlineStr"/>
       <c r="J1159" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1159" t="inlineStr">
         <is>
@@ -39425,7 +39121,7 @@
       </c>
       <c r="I1160" t="inlineStr"/>
       <c r="J1160" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1160" t="inlineStr">
         <is>
@@ -39464,7 +39160,7 @@
       </c>
       <c r="I1161" t="inlineStr"/>
       <c r="J1161" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1161" t="inlineStr">
         <is>
@@ -39503,7 +39199,7 @@
       </c>
       <c r="I1162" t="inlineStr"/>
       <c r="J1162" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1162" t="inlineStr">
         <is>
@@ -39542,7 +39238,7 @@
       </c>
       <c r="I1163" t="inlineStr"/>
       <c r="J1163" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1163" t="inlineStr">
         <is>
@@ -39581,7 +39277,7 @@
       </c>
       <c r="I1164" t="inlineStr"/>
       <c r="J1164" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1164" t="inlineStr">
         <is>
@@ -39620,7 +39316,7 @@
       </c>
       <c r="I1165" t="inlineStr"/>
       <c r="J1165" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1165" t="inlineStr">
         <is>
@@ -39659,7 +39355,7 @@
       </c>
       <c r="I1166" t="inlineStr"/>
       <c r="J1166" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1166" t="inlineStr">
         <is>
@@ -39698,7 +39394,7 @@
       </c>
       <c r="I1167" t="inlineStr"/>
       <c r="J1167" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1167" t="inlineStr">
         <is>
@@ -39737,7 +39433,7 @@
       </c>
       <c r="I1168" t="inlineStr"/>
       <c r="J1168" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1168" t="inlineStr">
         <is>
@@ -39776,7 +39472,7 @@
       </c>
       <c r="I1169" t="inlineStr"/>
       <c r="J1169" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1169" t="inlineStr">
         <is>
@@ -39815,7 +39511,7 @@
       </c>
       <c r="I1170" t="inlineStr"/>
       <c r="J1170" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1170" t="inlineStr">
         <is>
@@ -39854,7 +39550,7 @@
       </c>
       <c r="I1171" t="inlineStr"/>
       <c r="J1171" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1171" t="inlineStr">
         <is>
@@ -39893,7 +39589,7 @@
       </c>
       <c r="I1172" t="inlineStr"/>
       <c r="J1172" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1172" t="inlineStr">
         <is>
@@ -39932,7 +39628,7 @@
       </c>
       <c r="I1173" t="inlineStr"/>
       <c r="J1173" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1173" t="inlineStr">
         <is>
@@ -39971,7 +39667,7 @@
       </c>
       <c r="I1174" t="inlineStr"/>
       <c r="J1174" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1174" t="inlineStr">
         <is>
@@ -40010,7 +39706,7 @@
       </c>
       <c r="I1175" t="inlineStr"/>
       <c r="J1175" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1175" t="inlineStr">
         <is>
@@ -40049,7 +39745,7 @@
       </c>
       <c r="I1176" t="inlineStr"/>
       <c r="J1176" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1176" t="inlineStr">
         <is>
@@ -40088,7 +39784,7 @@
       </c>
       <c r="I1177" t="inlineStr"/>
       <c r="J1177" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1177" t="inlineStr">
         <is>
@@ -40127,7 +39823,7 @@
       </c>
       <c r="I1178" t="inlineStr"/>
       <c r="J1178" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1178" t="inlineStr">
         <is>
@@ -40166,7 +39862,7 @@
       </c>
       <c r="I1179" t="inlineStr"/>
       <c r="J1179" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1179" t="inlineStr">
         <is>
@@ -40205,7 +39901,7 @@
       </c>
       <c r="I1180" t="inlineStr"/>
       <c r="J1180" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1180" t="inlineStr">
         <is>
@@ -40244,7 +39940,7 @@
       </c>
       <c r="I1181" t="inlineStr"/>
       <c r="J1181" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1181" t="inlineStr">
         <is>
@@ -40283,7 +39979,7 @@
       </c>
       <c r="I1182" t="inlineStr"/>
       <c r="J1182" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1182" t="inlineStr">
         <is>
@@ -40322,7 +40018,7 @@
       </c>
       <c r="I1183" t="inlineStr"/>
       <c r="J1183" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1183" t="inlineStr">
         <is>
@@ -40361,7 +40057,7 @@
       </c>
       <c r="I1184" t="inlineStr"/>
       <c r="J1184" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1184" t="inlineStr">
         <is>
@@ -40400,7 +40096,7 @@
       </c>
       <c r="I1185" t="inlineStr"/>
       <c r="J1185" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1185" t="inlineStr">
         <is>
@@ -40439,7 +40135,7 @@
       </c>
       <c r="I1186" t="inlineStr"/>
       <c r="J1186" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1186" t="inlineStr">
         <is>
@@ -40478,7 +40174,7 @@
       </c>
       <c r="I1187" t="inlineStr"/>
       <c r="J1187" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1187" t="inlineStr">
         <is>
@@ -40517,7 +40213,7 @@
       </c>
       <c r="I1188" t="inlineStr"/>
       <c r="J1188" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1188" t="inlineStr">
         <is>
@@ -40556,7 +40252,7 @@
       </c>
       <c r="I1189" t="inlineStr"/>
       <c r="J1189" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1189" t="inlineStr">
         <is>
@@ -40595,7 +40291,7 @@
       </c>
       <c r="I1190" t="inlineStr"/>
       <c r="J1190" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1190" t="inlineStr">
         <is>
@@ -40634,7 +40330,7 @@
       </c>
       <c r="I1191" t="inlineStr"/>
       <c r="J1191" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1191" t="inlineStr">
         <is>
@@ -40673,7 +40369,7 @@
       </c>
       <c r="I1192" t="inlineStr"/>
       <c r="J1192" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1192" t="inlineStr">
         <is>
@@ -40712,7 +40408,7 @@
       </c>
       <c r="I1193" t="inlineStr"/>
       <c r="J1193" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1193" t="inlineStr">
         <is>
@@ -40751,7 +40447,7 @@
       </c>
       <c r="I1194" t="inlineStr"/>
       <c r="J1194" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1194" t="inlineStr">
         <is>
@@ -40790,7 +40486,7 @@
       </c>
       <c r="I1195" t="inlineStr"/>
       <c r="J1195" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1195" t="inlineStr">
         <is>
@@ -40829,7 +40525,7 @@
       </c>
       <c r="I1196" t="inlineStr"/>
       <c r="J1196" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1196" t="inlineStr">
         <is>
@@ -40868,7 +40564,7 @@
       </c>
       <c r="I1197" t="inlineStr"/>
       <c r="J1197" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1197" t="inlineStr">
         <is>
@@ -40907,7 +40603,7 @@
       </c>
       <c r="I1198" t="inlineStr"/>
       <c r="J1198" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1198" t="inlineStr">
         <is>
@@ -40946,7 +40642,7 @@
       </c>
       <c r="I1199" t="inlineStr"/>
       <c r="J1199" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1199" t="inlineStr">
         <is>
@@ -40985,7 +40681,7 @@
       </c>
       <c r="I1200" t="inlineStr"/>
       <c r="J1200" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1200" t="inlineStr">
         <is>
@@ -41024,7 +40720,7 @@
       </c>
       <c r="I1201" t="inlineStr"/>
       <c r="J1201" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1201" t="inlineStr">
         <is>
@@ -41063,7 +40759,7 @@
       </c>
       <c r="I1202" t="inlineStr"/>
       <c r="J1202" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1202" t="inlineStr">
         <is>
@@ -41102,7 +40798,7 @@
       </c>
       <c r="I1203" t="inlineStr"/>
       <c r="J1203" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1203" t="inlineStr">
         <is>
@@ -41141,7 +40837,7 @@
       </c>
       <c r="I1204" t="inlineStr"/>
       <c r="J1204" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1204" t="inlineStr">
         <is>
@@ -41180,7 +40876,7 @@
       </c>
       <c r="I1205" t="inlineStr"/>
       <c r="J1205" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1205" t="inlineStr">
         <is>
@@ -41219,7 +40915,7 @@
       </c>
       <c r="I1206" t="inlineStr"/>
       <c r="J1206" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1206" t="inlineStr">
         <is>
@@ -41258,7 +40954,7 @@
       </c>
       <c r="I1207" t="inlineStr"/>
       <c r="J1207" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1207" t="inlineStr">
         <is>
@@ -41297,7 +40993,7 @@
       </c>
       <c r="I1208" t="inlineStr"/>
       <c r="J1208" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1208" t="inlineStr">
         <is>
@@ -41336,7 +41032,7 @@
       </c>
       <c r="I1209" t="inlineStr"/>
       <c r="J1209" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1209" t="inlineStr">
         <is>
@@ -41375,7 +41071,7 @@
       </c>
       <c r="I1210" t="inlineStr"/>
       <c r="J1210" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1210" t="inlineStr">
         <is>
@@ -41414,7 +41110,7 @@
       </c>
       <c r="I1211" t="inlineStr"/>
       <c r="J1211" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1211" t="inlineStr">
         <is>
@@ -41453,7 +41149,7 @@
       </c>
       <c r="I1212" t="inlineStr"/>
       <c r="J1212" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1212" t="inlineStr">
         <is>
@@ -41492,7 +41188,7 @@
       </c>
       <c r="I1213" t="inlineStr"/>
       <c r="J1213" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1213" t="inlineStr">
         <is>
@@ -41531,7 +41227,7 @@
       </c>
       <c r="I1214" t="inlineStr"/>
       <c r="J1214" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1214" t="inlineStr">
         <is>
@@ -41570,7 +41266,7 @@
       </c>
       <c r="I1215" t="inlineStr"/>
       <c r="J1215" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1215" t="inlineStr">
         <is>
@@ -41609,7 +41305,7 @@
       </c>
       <c r="I1216" t="inlineStr"/>
       <c r="J1216" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1216" t="inlineStr">
         <is>
@@ -41648,7 +41344,7 @@
       </c>
       <c r="I1217" t="inlineStr"/>
       <c r="J1217" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1217" t="inlineStr">
         <is>
@@ -41687,7 +41383,7 @@
       </c>
       <c r="I1218" t="inlineStr"/>
       <c r="J1218" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1218" t="inlineStr">
         <is>
@@ -41726,7 +41422,7 @@
       </c>
       <c r="I1219" t="inlineStr"/>
       <c r="J1219" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1219" t="inlineStr">
         <is>
@@ -41765,7 +41461,7 @@
       </c>
       <c r="I1220" t="inlineStr"/>
       <c r="J1220" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1220" t="inlineStr">
         <is>
@@ -41804,7 +41500,7 @@
       </c>
       <c r="I1221" t="inlineStr"/>
       <c r="J1221" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1221" t="inlineStr">
         <is>
@@ -41843,7 +41539,7 @@
       </c>
       <c r="I1222" t="inlineStr"/>
       <c r="J1222" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1222" t="inlineStr">
         <is>
@@ -41882,7 +41578,7 @@
       </c>
       <c r="I1223" t="inlineStr"/>
       <c r="J1223" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1223" t="inlineStr">
         <is>
@@ -41921,7 +41617,7 @@
       </c>
       <c r="I1224" t="inlineStr"/>
       <c r="J1224" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1224" t="inlineStr">
         <is>
@@ -41960,7 +41656,7 @@
       </c>
       <c r="I1225" t="inlineStr"/>
       <c r="J1225" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1225" t="inlineStr">
         <is>
@@ -41999,7 +41695,7 @@
       </c>
       <c r="I1226" t="inlineStr"/>
       <c r="J1226" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1226" t="inlineStr">
         <is>
@@ -42038,7 +41734,7 @@
       </c>
       <c r="I1227" t="inlineStr"/>
       <c r="J1227" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1227" t="inlineStr">
         <is>
@@ -42077,7 +41773,7 @@
       </c>
       <c r="I1228" t="inlineStr"/>
       <c r="J1228" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1228" t="inlineStr">
         <is>
@@ -42116,7 +41812,7 @@
       </c>
       <c r="I1229" t="inlineStr"/>
       <c r="J1229" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1229" t="inlineStr">
         <is>
@@ -42155,7 +41851,7 @@
       </c>
       <c r="I1230" t="inlineStr"/>
       <c r="J1230" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1230" t="inlineStr">
         <is>
@@ -42194,7 +41890,7 @@
       </c>
       <c r="I1231" t="inlineStr"/>
       <c r="J1231" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1231" t="inlineStr">
         <is>
@@ -42233,7 +41929,7 @@
       </c>
       <c r="I1232" t="inlineStr"/>
       <c r="J1232" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1232" t="inlineStr">
         <is>
@@ -42272,7 +41968,7 @@
       </c>
       <c r="I1233" t="inlineStr"/>
       <c r="J1233" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1233" t="inlineStr">
         <is>
@@ -42311,7 +42007,7 @@
       </c>
       <c r="I1234" t="inlineStr"/>
       <c r="J1234" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1234" t="inlineStr">
         <is>
@@ -42350,7 +42046,7 @@
       </c>
       <c r="I1235" t="inlineStr"/>
       <c r="J1235" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1235" t="inlineStr">
         <is>
@@ -42389,7 +42085,7 @@
       </c>
       <c r="I1236" t="inlineStr"/>
       <c r="J1236" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1236" t="inlineStr">
         <is>
@@ -42428,7 +42124,7 @@
       </c>
       <c r="I1237" t="inlineStr"/>
       <c r="J1237" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1237" t="inlineStr">
         <is>
@@ -42467,7 +42163,7 @@
       </c>
       <c r="I1238" t="inlineStr"/>
       <c r="J1238" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1238" t="inlineStr">
         <is>
@@ -42506,7 +42202,7 @@
       </c>
       <c r="I1239" t="inlineStr"/>
       <c r="J1239" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1239" t="inlineStr">
         <is>
@@ -42545,7 +42241,7 @@
       </c>
       <c r="I1240" t="inlineStr"/>
       <c r="J1240" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1240" t="inlineStr">
         <is>
@@ -42584,7 +42280,7 @@
       </c>
       <c r="I1241" t="inlineStr"/>
       <c r="J1241" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1241" t="inlineStr">
         <is>
@@ -42623,7 +42319,7 @@
       </c>
       <c r="I1242" t="inlineStr"/>
       <c r="J1242" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1242" t="inlineStr">
         <is>
@@ -42662,7 +42358,7 @@
       </c>
       <c r="I1243" t="inlineStr"/>
       <c r="J1243" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1243" t="inlineStr">
         <is>
@@ -42701,7 +42397,7 @@
       </c>
       <c r="I1244" t="inlineStr"/>
       <c r="J1244" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1244" t="inlineStr">
         <is>
@@ -42740,7 +42436,7 @@
       </c>
       <c r="I1245" t="inlineStr"/>
       <c r="J1245" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1245" t="inlineStr">
         <is>
@@ -42779,7 +42475,7 @@
       </c>
       <c r="I1246" t="inlineStr"/>
       <c r="J1246" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1246" t="inlineStr">
         <is>
@@ -42818,7 +42514,7 @@
       </c>
       <c r="I1247" t="inlineStr"/>
       <c r="J1247" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1247" t="inlineStr">
         <is>
@@ -42857,7 +42553,7 @@
       </c>
       <c r="I1248" t="inlineStr"/>
       <c r="J1248" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1248" t="inlineStr">
         <is>
@@ -42896,7 +42592,7 @@
       </c>
       <c r="I1249" t="inlineStr"/>
       <c r="J1249" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1249" t="inlineStr">
         <is>
@@ -42935,7 +42631,7 @@
       </c>
       <c r="I1250" t="inlineStr"/>
       <c r="J1250" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1250" t="inlineStr">
         <is>
@@ -42974,7 +42670,7 @@
       </c>
       <c r="I1251" t="inlineStr"/>
       <c r="J1251" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1251" t="inlineStr">
         <is>
@@ -43013,7 +42709,7 @@
       </c>
       <c r="I1252" t="inlineStr"/>
       <c r="J1252" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1252" t="inlineStr">
         <is>
@@ -43052,7 +42748,7 @@
       </c>
       <c r="I1253" t="inlineStr"/>
       <c r="J1253" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1253" t="inlineStr">
         <is>
@@ -43091,7 +42787,7 @@
       </c>
       <c r="I1254" t="inlineStr"/>
       <c r="J1254" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1254" t="inlineStr">
         <is>
@@ -43130,7 +42826,7 @@
       </c>
       <c r="I1255" t="inlineStr"/>
       <c r="J1255" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1255" t="inlineStr">
         <is>
@@ -43169,7 +42865,7 @@
       </c>
       <c r="I1256" t="inlineStr"/>
       <c r="J1256" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1256" t="inlineStr">
         <is>
@@ -43208,7 +42904,7 @@
       </c>
       <c r="I1257" t="inlineStr"/>
       <c r="J1257" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1257" t="inlineStr">
         <is>
@@ -43247,7 +42943,7 @@
       </c>
       <c r="I1258" t="inlineStr"/>
       <c r="J1258" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1258" t="inlineStr">
         <is>
@@ -43286,7 +42982,7 @@
       </c>
       <c r="I1259" t="inlineStr"/>
       <c r="J1259" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1259" t="inlineStr">
         <is>
@@ -43325,7 +43021,7 @@
       </c>
       <c r="I1260" t="inlineStr"/>
       <c r="J1260" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1260" t="inlineStr">
         <is>
@@ -43364,7 +43060,7 @@
       </c>
       <c r="I1261" t="inlineStr"/>
       <c r="J1261" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1261" t="inlineStr">
         <is>
@@ -43403,7 +43099,7 @@
       </c>
       <c r="I1262" t="inlineStr"/>
       <c r="J1262" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1262" t="inlineStr">
         <is>
@@ -43442,7 +43138,7 @@
       </c>
       <c r="I1263" t="inlineStr"/>
       <c r="J1263" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1263" t="inlineStr">
         <is>
@@ -43481,7 +43177,7 @@
       </c>
       <c r="I1264" t="inlineStr"/>
       <c r="J1264" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1264" t="inlineStr">
         <is>
@@ -43520,7 +43216,7 @@
       </c>
       <c r="I1265" t="inlineStr"/>
       <c r="J1265" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1265" t="inlineStr">
         <is>
@@ -43559,7 +43255,7 @@
       </c>
       <c r="I1266" t="inlineStr"/>
       <c r="J1266" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1266" t="inlineStr">
         <is>
@@ -43598,7 +43294,7 @@
       </c>
       <c r="I1267" t="inlineStr"/>
       <c r="J1267" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1267" t="inlineStr">
         <is>
@@ -43637,7 +43333,7 @@
       </c>
       <c r="I1268" t="inlineStr"/>
       <c r="J1268" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1268" t="inlineStr">
         <is>
@@ -43676,7 +43372,7 @@
       </c>
       <c r="I1269" t="inlineStr"/>
       <c r="J1269" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1269" t="inlineStr">
         <is>
@@ -43715,7 +43411,7 @@
       </c>
       <c r="I1270" t="inlineStr"/>
       <c r="J1270" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1270" t="inlineStr">
         <is>
@@ -43754,7 +43450,7 @@
       </c>
       <c r="I1271" t="inlineStr"/>
       <c r="J1271" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1271" t="inlineStr">
         <is>
@@ -43793,7 +43489,7 @@
       </c>
       <c r="I1272" t="inlineStr"/>
       <c r="J1272" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1272" t="inlineStr">
         <is>
@@ -43832,7 +43528,7 @@
       </c>
       <c r="I1273" t="inlineStr"/>
       <c r="J1273" t="n">
-        <v>2.028</v>
+        <v>2.039</v>
       </c>
       <c r="K1273" t="inlineStr">
         <is>
@@ -43845,6 +43541,6 @@
       <c r="M1273" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest DAC.xlsx
+++ b/BackTest/2020-01-13 BackTest DAC.xlsx
@@ -8206,7 +8206,7 @@
         <v>5170620.821099998</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>5724227.350699998</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>5663708.824799999</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>5709434.754370735</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>5657585.753470735</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>5545604.857370735</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>5202970.801470735</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>4170029.234970735</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>4296955.978870736</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>4307756.605070735</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>4255669.055470736</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>4242430.520570735</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>4266927.657170735</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>4032055.451370736</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>3961813.520270735</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>3655214.362470735</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>3728665.000370735</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>3685554.229970735</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>3643253.857870735</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>3517175.634370735</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>2092872.630970735</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>2134326.605570735</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>2177129.837670736</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>2136527.946470736</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>2186148.201770735</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>3244056.891270735</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>3621019.802770735</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>3675053.875370735</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>3351475.492570735</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>3575745.872570734</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>3575745.872570734</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>3575745.872570734</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>3523450.076470735</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>3558260.905270734</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>3558260.905270734</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>3599358.510970735</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>3552587.791370735</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>3591996.619970735</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>3591996.619970735</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>3543369.604470734</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>3460902.128870734</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>3439010.127370735</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>3273535.182170735</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>3333634.289170735</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>3372000.619670735</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>3263875.568670735</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>3324120.163870735</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>3068250.774570735</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>2949448.756670735</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>2968409.888570735</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>3018556.715570735</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>2991217.056570735</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>3033024.376870735</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>2979302.742670734</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>2863666.846770735</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -35497,11 +35497,17 @@
         <v>-2375479.826772987</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1064" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1064" t="n">
+        <v>2.028</v>
+      </c>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -35530,11 +35536,17 @@
         <v>-2360004.900372987</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1065" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1065" t="n">
+        <v>2.036</v>
+      </c>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -35567,7 +35579,11 @@
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -35600,7 +35616,11 @@
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
@@ -35633,7 +35653,11 @@
       </c>
       <c r="I1068" t="inlineStr"/>
       <c r="J1068" t="inlineStr"/>
-      <c r="K1068" t="inlineStr"/>
+      <c r="K1068" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1068" t="n">
         <v>1</v>
       </c>
@@ -35666,7 +35690,11 @@
       </c>
       <c r="I1069" t="inlineStr"/>
       <c r="J1069" t="inlineStr"/>
-      <c r="K1069" t="inlineStr"/>
+      <c r="K1069" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1069" t="n">
         <v>1</v>
       </c>
@@ -35699,7 +35727,11 @@
       </c>
       <c r="I1070" t="inlineStr"/>
       <c r="J1070" t="inlineStr"/>
-      <c r="K1070" t="inlineStr"/>
+      <c r="K1070" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1070" t="n">
         <v>1</v>
       </c>
@@ -35732,7 +35764,11 @@
       </c>
       <c r="I1071" t="inlineStr"/>
       <c r="J1071" t="inlineStr"/>
-      <c r="K1071" t="inlineStr"/>
+      <c r="K1071" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1071" t="n">
         <v>1</v>
       </c>
@@ -35765,7 +35801,11 @@
       </c>
       <c r="I1072" t="inlineStr"/>
       <c r="J1072" t="inlineStr"/>
-      <c r="K1072" t="inlineStr"/>
+      <c r="K1072" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1072" t="n">
         <v>1</v>
       </c>
@@ -35798,7 +35838,11 @@
       </c>
       <c r="I1073" t="inlineStr"/>
       <c r="J1073" t="inlineStr"/>
-      <c r="K1073" t="inlineStr"/>
+      <c r="K1073" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1073" t="n">
         <v>1</v>
       </c>
@@ -35831,7 +35875,11 @@
       </c>
       <c r="I1074" t="inlineStr"/>
       <c r="J1074" t="inlineStr"/>
-      <c r="K1074" t="inlineStr"/>
+      <c r="K1074" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1074" t="n">
         <v>1</v>
       </c>
@@ -35864,7 +35912,11 @@
       </c>
       <c r="I1075" t="inlineStr"/>
       <c r="J1075" t="inlineStr"/>
-      <c r="K1075" t="inlineStr"/>
+      <c r="K1075" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1075" t="n">
         <v>1</v>
       </c>
@@ -35897,7 +35949,11 @@
       </c>
       <c r="I1076" t="inlineStr"/>
       <c r="J1076" t="inlineStr"/>
-      <c r="K1076" t="inlineStr"/>
+      <c r="K1076" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1076" t="n">
         <v>1</v>
       </c>
@@ -35930,7 +35986,11 @@
       </c>
       <c r="I1077" t="inlineStr"/>
       <c r="J1077" t="inlineStr"/>
-      <c r="K1077" t="inlineStr"/>
+      <c r="K1077" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1077" t="n">
         <v>1</v>
       </c>
@@ -35963,7 +36023,11 @@
       </c>
       <c r="I1078" t="inlineStr"/>
       <c r="J1078" t="inlineStr"/>
-      <c r="K1078" t="inlineStr"/>
+      <c r="K1078" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1078" t="n">
         <v>1</v>
       </c>
@@ -35996,7 +36060,11 @@
       </c>
       <c r="I1079" t="inlineStr"/>
       <c r="J1079" t="inlineStr"/>
-      <c r="K1079" t="inlineStr"/>
+      <c r="K1079" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1079" t="n">
         <v>1</v>
       </c>
@@ -36025,11 +36093,17 @@
         <v>-2237084.985272987</v>
       </c>
       <c r="H1080" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1080" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1080" t="n">
+        <v>2.038</v>
+      </c>
       <c r="J1080" t="inlineStr"/>
-      <c r="K1080" t="inlineStr"/>
+      <c r="K1080" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1080" t="n">
         <v>1</v>
       </c>
@@ -36058,11 +36132,17 @@
         <v>-2183520.973572987</v>
       </c>
       <c r="H1081" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1081" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1081" t="n">
+        <v>2.039</v>
+      </c>
       <c r="J1081" t="inlineStr"/>
-      <c r="K1081" t="inlineStr"/>
+      <c r="K1081" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1081" t="n">
         <v>1</v>
       </c>
@@ -36091,11 +36171,17 @@
         <v>-2218488.784172987</v>
       </c>
       <c r="H1082" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1082" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1082" t="n">
+        <v>2.04</v>
+      </c>
       <c r="J1082" t="inlineStr"/>
-      <c r="K1082" t="inlineStr"/>
+      <c r="K1082" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1082" t="n">
         <v>1</v>
       </c>
@@ -36124,11 +36210,17 @@
         <v>-2218488.784172987</v>
       </c>
       <c r="H1083" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1083" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1083" t="n">
+        <v>2.039</v>
+      </c>
       <c r="J1083" t="inlineStr"/>
-      <c r="K1083" t="inlineStr"/>
+      <c r="K1083" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1083" t="n">
         <v>1</v>
       </c>
@@ -36161,7 +36253,11 @@
       </c>
       <c r="I1084" t="inlineStr"/>
       <c r="J1084" t="inlineStr"/>
-      <c r="K1084" t="inlineStr"/>
+      <c r="K1084" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1084" t="n">
         <v>1</v>
       </c>
@@ -36194,7 +36290,11 @@
       </c>
       <c r="I1085" t="inlineStr"/>
       <c r="J1085" t="inlineStr"/>
-      <c r="K1085" t="inlineStr"/>
+      <c r="K1085" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1085" t="n">
         <v>1</v>
       </c>
@@ -36227,7 +36327,11 @@
       </c>
       <c r="I1086" t="inlineStr"/>
       <c r="J1086" t="inlineStr"/>
-      <c r="K1086" t="inlineStr"/>
+      <c r="K1086" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1086" t="n">
         <v>1</v>
       </c>
@@ -36260,7 +36364,11 @@
       </c>
       <c r="I1087" t="inlineStr"/>
       <c r="J1087" t="inlineStr"/>
-      <c r="K1087" t="inlineStr"/>
+      <c r="K1087" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1087" t="n">
         <v>1</v>
       </c>
@@ -36289,11 +36397,17 @@
         <v>-2231767.885872987</v>
       </c>
       <c r="H1088" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1088" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1088" t="n">
+        <v>2.039</v>
+      </c>
       <c r="J1088" t="inlineStr"/>
-      <c r="K1088" t="inlineStr"/>
+      <c r="K1088" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1088" t="n">
         <v>1</v>
       </c>
@@ -36327,10 +36441,12 @@
       <c r="I1089" t="n">
         <v>2.039</v>
       </c>
-      <c r="J1089" t="n">
-        <v>2.039</v>
-      </c>
-      <c r="K1089" t="inlineStr"/>
+      <c r="J1089" t="inlineStr"/>
+      <c r="K1089" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1089" t="n">
         <v>1</v>
       </c>
@@ -36364,12 +36480,10 @@
       <c r="I1090" t="n">
         <v>2.034</v>
       </c>
-      <c r="J1090" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1090" t="inlineStr"/>
       <c r="K1090" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1090" t="n">
@@ -36405,12 +36519,10 @@
       <c r="I1091" t="n">
         <v>2.037</v>
       </c>
-      <c r="J1091" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1091" t="inlineStr"/>
       <c r="K1091" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1091" t="n">
@@ -36446,9 +36558,7 @@
       <c r="I1092" t="n">
         <v>2.04</v>
       </c>
-      <c r="J1092" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1092" t="inlineStr"/>
       <c r="K1092" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36487,9 +36597,7 @@
       <c r="I1093" t="n">
         <v>2.039</v>
       </c>
-      <c r="J1093" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1093" t="inlineStr"/>
       <c r="K1093" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36528,9 +36636,7 @@
       <c r="I1094" t="n">
         <v>2.039</v>
       </c>
-      <c r="J1094" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1094" t="inlineStr"/>
       <c r="K1094" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36569,9 +36675,7 @@
       <c r="I1095" t="n">
         <v>2.04</v>
       </c>
-      <c r="J1095" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1095" t="inlineStr"/>
       <c r="K1095" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36610,9 +36714,7 @@
       <c r="I1096" t="n">
         <v>2.039</v>
       </c>
-      <c r="J1096" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1096" t="inlineStr"/>
       <c r="K1096" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36651,9 +36753,7 @@
       <c r="I1097" t="n">
         <v>2.044</v>
       </c>
-      <c r="J1097" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1097" t="inlineStr"/>
       <c r="K1097" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36692,9 +36792,7 @@
       <c r="I1098" t="n">
         <v>2.043</v>
       </c>
-      <c r="J1098" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1098" t="inlineStr"/>
       <c r="K1098" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36733,9 +36831,7 @@
       <c r="I1099" t="n">
         <v>2.042</v>
       </c>
-      <c r="J1099" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1099" t="inlineStr"/>
       <c r="K1099" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36774,9 +36870,7 @@
       <c r="I1100" t="n">
         <v>2.042</v>
       </c>
-      <c r="J1100" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1100" t="inlineStr"/>
       <c r="K1100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36815,9 +36909,7 @@
       <c r="I1101" t="n">
         <v>2.041</v>
       </c>
-      <c r="J1101" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1101" t="inlineStr"/>
       <c r="K1101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36856,9 +36948,7 @@
       <c r="I1102" t="n">
         <v>2.044</v>
       </c>
-      <c r="J1102" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1102" t="inlineStr"/>
       <c r="K1102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36897,9 +36987,7 @@
       <c r="I1103" t="n">
         <v>2.043</v>
       </c>
-      <c r="J1103" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1103" t="inlineStr"/>
       <c r="K1103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36933,12 +37021,12 @@
         <v>-489474.2280729873</v>
       </c>
       <c r="H1104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1104" t="inlineStr"/>
-      <c r="J1104" t="n">
-        <v>2.039</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I1104" t="n">
+        <v>2.044</v>
+      </c>
+      <c r="J1104" t="inlineStr"/>
       <c r="K1104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -36975,9 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I1105" t="inlineStr"/>
-      <c r="J1105" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1105" t="inlineStr"/>
       <c r="K1105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37014,9 +37100,7 @@
         <v>0</v>
       </c>
       <c r="I1106" t="inlineStr"/>
-      <c r="J1106" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1106" t="inlineStr"/>
       <c r="K1106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37053,9 +37137,7 @@
         <v>0</v>
       </c>
       <c r="I1107" t="inlineStr"/>
-      <c r="J1107" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1107" t="inlineStr"/>
       <c r="K1107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37092,9 +37174,7 @@
         <v>0</v>
       </c>
       <c r="I1108" t="inlineStr"/>
-      <c r="J1108" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1108" t="inlineStr"/>
       <c r="K1108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37131,9 +37211,7 @@
         <v>0</v>
       </c>
       <c r="I1109" t="inlineStr"/>
-      <c r="J1109" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1109" t="inlineStr"/>
       <c r="K1109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37170,9 +37248,7 @@
         <v>0</v>
       </c>
       <c r="I1110" t="inlineStr"/>
-      <c r="J1110" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1110" t="inlineStr"/>
       <c r="K1110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37209,9 +37285,7 @@
         <v>0</v>
       </c>
       <c r="I1111" t="inlineStr"/>
-      <c r="J1111" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1111" t="inlineStr"/>
       <c r="K1111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37248,9 +37322,7 @@
         <v>0</v>
       </c>
       <c r="I1112" t="inlineStr"/>
-      <c r="J1112" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1112" t="inlineStr"/>
       <c r="K1112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37287,9 +37359,7 @@
         <v>0</v>
       </c>
       <c r="I1113" t="inlineStr"/>
-      <c r="J1113" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1113" t="inlineStr"/>
       <c r="K1113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37326,9 +37396,7 @@
         <v>0</v>
       </c>
       <c r="I1114" t="inlineStr"/>
-      <c r="J1114" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1114" t="inlineStr"/>
       <c r="K1114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37365,9 +37433,7 @@
         <v>0</v>
       </c>
       <c r="I1115" t="inlineStr"/>
-      <c r="J1115" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1115" t="inlineStr"/>
       <c r="K1115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37404,9 +37470,7 @@
         <v>0</v>
       </c>
       <c r="I1116" t="inlineStr"/>
-      <c r="J1116" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1116" t="inlineStr"/>
       <c r="K1116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37443,9 +37507,7 @@
         <v>0</v>
       </c>
       <c r="I1117" t="inlineStr"/>
-      <c r="J1117" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1117" t="inlineStr"/>
       <c r="K1117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37482,9 +37544,7 @@
         <v>0</v>
       </c>
       <c r="I1118" t="inlineStr"/>
-      <c r="J1118" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1118" t="inlineStr"/>
       <c r="K1118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37521,9 +37581,7 @@
         <v>0</v>
       </c>
       <c r="I1119" t="inlineStr"/>
-      <c r="J1119" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1119" t="inlineStr"/>
       <c r="K1119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37560,9 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I1120" t="inlineStr"/>
-      <c r="J1120" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1120" t="inlineStr"/>
       <c r="K1120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37599,9 +37655,7 @@
         <v>0</v>
       </c>
       <c r="I1121" t="inlineStr"/>
-      <c r="J1121" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1121" t="inlineStr"/>
       <c r="K1121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37638,9 +37692,7 @@
         <v>0</v>
       </c>
       <c r="I1122" t="inlineStr"/>
-      <c r="J1122" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1122" t="inlineStr"/>
       <c r="K1122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37677,9 +37729,7 @@
         <v>0</v>
       </c>
       <c r="I1123" t="inlineStr"/>
-      <c r="J1123" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1123" t="inlineStr"/>
       <c r="K1123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37716,9 +37766,7 @@
         <v>0</v>
       </c>
       <c r="I1124" t="inlineStr"/>
-      <c r="J1124" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1124" t="inlineStr"/>
       <c r="K1124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37755,9 +37803,7 @@
         <v>0</v>
       </c>
       <c r="I1125" t="inlineStr"/>
-      <c r="J1125" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1125" t="inlineStr"/>
       <c r="K1125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37794,9 +37840,7 @@
         <v>0</v>
       </c>
       <c r="I1126" t="inlineStr"/>
-      <c r="J1126" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1126" t="inlineStr"/>
       <c r="K1126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37833,9 +37877,7 @@
         <v>0</v>
       </c>
       <c r="I1127" t="inlineStr"/>
-      <c r="J1127" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1127" t="inlineStr"/>
       <c r="K1127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37872,9 +37914,7 @@
         <v>0</v>
       </c>
       <c r="I1128" t="inlineStr"/>
-      <c r="J1128" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1128" t="inlineStr"/>
       <c r="K1128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37911,9 +37951,7 @@
         <v>0</v>
       </c>
       <c r="I1129" t="inlineStr"/>
-      <c r="J1129" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1129" t="inlineStr"/>
       <c r="K1129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37950,9 +37988,7 @@
         <v>0</v>
       </c>
       <c r="I1130" t="inlineStr"/>
-      <c r="J1130" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1130" t="inlineStr"/>
       <c r="K1130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -37989,9 +38025,7 @@
         <v>0</v>
       </c>
       <c r="I1131" t="inlineStr"/>
-      <c r="J1131" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1131" t="inlineStr"/>
       <c r="K1131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38028,9 +38062,7 @@
         <v>0</v>
       </c>
       <c r="I1132" t="inlineStr"/>
-      <c r="J1132" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1132" t="inlineStr"/>
       <c r="K1132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38067,9 +38099,7 @@
         <v>0</v>
       </c>
       <c r="I1133" t="inlineStr"/>
-      <c r="J1133" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1133" t="inlineStr"/>
       <c r="K1133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38106,9 +38136,7 @@
         <v>0</v>
       </c>
       <c r="I1134" t="inlineStr"/>
-      <c r="J1134" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1134" t="inlineStr"/>
       <c r="K1134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38145,9 +38173,7 @@
         <v>0</v>
       </c>
       <c r="I1135" t="inlineStr"/>
-      <c r="J1135" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1135" t="inlineStr"/>
       <c r="K1135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38184,9 +38210,7 @@
         <v>0</v>
       </c>
       <c r="I1136" t="inlineStr"/>
-      <c r="J1136" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1136" t="inlineStr"/>
       <c r="K1136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38223,9 +38247,7 @@
         <v>0</v>
       </c>
       <c r="I1137" t="inlineStr"/>
-      <c r="J1137" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1137" t="inlineStr"/>
       <c r="K1137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38262,9 +38284,7 @@
         <v>0</v>
       </c>
       <c r="I1138" t="inlineStr"/>
-      <c r="J1138" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1138" t="inlineStr"/>
       <c r="K1138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38301,9 +38321,7 @@
         <v>0</v>
       </c>
       <c r="I1139" t="inlineStr"/>
-      <c r="J1139" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1139" t="inlineStr"/>
       <c r="K1139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38340,9 +38358,7 @@
         <v>0</v>
       </c>
       <c r="I1140" t="inlineStr"/>
-      <c r="J1140" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1140" t="inlineStr"/>
       <c r="K1140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38379,9 +38395,7 @@
         <v>0</v>
       </c>
       <c r="I1141" t="inlineStr"/>
-      <c r="J1141" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1141" t="inlineStr"/>
       <c r="K1141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38418,9 +38432,7 @@
         <v>0</v>
       </c>
       <c r="I1142" t="inlineStr"/>
-      <c r="J1142" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1142" t="inlineStr"/>
       <c r="K1142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38457,9 +38469,7 @@
         <v>0</v>
       </c>
       <c r="I1143" t="inlineStr"/>
-      <c r="J1143" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1143" t="inlineStr"/>
       <c r="K1143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38496,9 +38506,7 @@
         <v>0</v>
       </c>
       <c r="I1144" t="inlineStr"/>
-      <c r="J1144" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1144" t="inlineStr"/>
       <c r="K1144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38535,9 +38543,7 @@
         <v>0</v>
       </c>
       <c r="I1145" t="inlineStr"/>
-      <c r="J1145" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1145" t="inlineStr"/>
       <c r="K1145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38574,9 +38580,7 @@
         <v>0</v>
       </c>
       <c r="I1146" t="inlineStr"/>
-      <c r="J1146" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1146" t="inlineStr"/>
       <c r="K1146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38613,9 +38617,7 @@
         <v>0</v>
       </c>
       <c r="I1147" t="inlineStr"/>
-      <c r="J1147" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1147" t="inlineStr"/>
       <c r="K1147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38652,9 +38654,7 @@
         <v>0</v>
       </c>
       <c r="I1148" t="inlineStr"/>
-      <c r="J1148" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1148" t="inlineStr"/>
       <c r="K1148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38691,9 +38691,7 @@
         <v>0</v>
       </c>
       <c r="I1149" t="inlineStr"/>
-      <c r="J1149" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1149" t="inlineStr"/>
       <c r="K1149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38730,9 +38728,7 @@
         <v>0</v>
       </c>
       <c r="I1150" t="inlineStr"/>
-      <c r="J1150" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1150" t="inlineStr"/>
       <c r="K1150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38769,9 +38765,7 @@
         <v>0</v>
       </c>
       <c r="I1151" t="inlineStr"/>
-      <c r="J1151" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1151" t="inlineStr"/>
       <c r="K1151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38808,9 +38802,7 @@
         <v>0</v>
       </c>
       <c r="I1152" t="inlineStr"/>
-      <c r="J1152" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1152" t="inlineStr"/>
       <c r="K1152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38847,9 +38839,7 @@
         <v>0</v>
       </c>
       <c r="I1153" t="inlineStr"/>
-      <c r="J1153" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1153" t="inlineStr"/>
       <c r="K1153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38886,9 +38876,7 @@
         <v>0</v>
       </c>
       <c r="I1154" t="inlineStr"/>
-      <c r="J1154" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1154" t="inlineStr"/>
       <c r="K1154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38925,9 +38913,7 @@
         <v>0</v>
       </c>
       <c r="I1155" t="inlineStr"/>
-      <c r="J1155" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1155" t="inlineStr"/>
       <c r="K1155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -38964,9 +38950,7 @@
         <v>0</v>
       </c>
       <c r="I1156" t="inlineStr"/>
-      <c r="J1156" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1156" t="inlineStr"/>
       <c r="K1156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39003,9 +38987,7 @@
         <v>0</v>
       </c>
       <c r="I1157" t="inlineStr"/>
-      <c r="J1157" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1157" t="inlineStr"/>
       <c r="K1157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39042,9 +39024,7 @@
         <v>0</v>
       </c>
       <c r="I1158" t="inlineStr"/>
-      <c r="J1158" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1158" t="inlineStr"/>
       <c r="K1158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39081,9 +39061,7 @@
         <v>0</v>
       </c>
       <c r="I1159" t="inlineStr"/>
-      <c r="J1159" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1159" t="inlineStr"/>
       <c r="K1159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39120,9 +39098,7 @@
         <v>0</v>
       </c>
       <c r="I1160" t="inlineStr"/>
-      <c r="J1160" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1160" t="inlineStr"/>
       <c r="K1160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39159,9 +39135,7 @@
         <v>0</v>
       </c>
       <c r="I1161" t="inlineStr"/>
-      <c r="J1161" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1161" t="inlineStr"/>
       <c r="K1161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39198,9 +39172,7 @@
         <v>0</v>
       </c>
       <c r="I1162" t="inlineStr"/>
-      <c r="J1162" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1162" t="inlineStr"/>
       <c r="K1162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39237,9 +39209,7 @@
         <v>0</v>
       </c>
       <c r="I1163" t="inlineStr"/>
-      <c r="J1163" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1163" t="inlineStr"/>
       <c r="K1163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39276,9 +39246,7 @@
         <v>0</v>
       </c>
       <c r="I1164" t="inlineStr"/>
-      <c r="J1164" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1164" t="inlineStr"/>
       <c r="K1164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39315,9 +39283,7 @@
         <v>0</v>
       </c>
       <c r="I1165" t="inlineStr"/>
-      <c r="J1165" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1165" t="inlineStr"/>
       <c r="K1165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39354,9 +39320,7 @@
         <v>0</v>
       </c>
       <c r="I1166" t="inlineStr"/>
-      <c r="J1166" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1166" t="inlineStr"/>
       <c r="K1166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39393,9 +39357,7 @@
         <v>0</v>
       </c>
       <c r="I1167" t="inlineStr"/>
-      <c r="J1167" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1167" t="inlineStr"/>
       <c r="K1167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39432,9 +39394,7 @@
         <v>0</v>
       </c>
       <c r="I1168" t="inlineStr"/>
-      <c r="J1168" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1168" t="inlineStr"/>
       <c r="K1168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39471,9 +39431,7 @@
         <v>0</v>
       </c>
       <c r="I1169" t="inlineStr"/>
-      <c r="J1169" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1169" t="inlineStr"/>
       <c r="K1169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39510,9 +39468,7 @@
         <v>0</v>
       </c>
       <c r="I1170" t="inlineStr"/>
-      <c r="J1170" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1170" t="inlineStr"/>
       <c r="K1170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39549,9 +39505,7 @@
         <v>0</v>
       </c>
       <c r="I1171" t="inlineStr"/>
-      <c r="J1171" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1171" t="inlineStr"/>
       <c r="K1171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39588,9 +39542,7 @@
         <v>0</v>
       </c>
       <c r="I1172" t="inlineStr"/>
-      <c r="J1172" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1172" t="inlineStr"/>
       <c r="K1172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39627,9 +39579,7 @@
         <v>0</v>
       </c>
       <c r="I1173" t="inlineStr"/>
-      <c r="J1173" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1173" t="inlineStr"/>
       <c r="K1173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39666,9 +39616,7 @@
         <v>0</v>
       </c>
       <c r="I1174" t="inlineStr"/>
-      <c r="J1174" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1174" t="inlineStr"/>
       <c r="K1174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39705,9 +39653,7 @@
         <v>0</v>
       </c>
       <c r="I1175" t="inlineStr"/>
-      <c r="J1175" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1175" t="inlineStr"/>
       <c r="K1175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39744,9 +39690,7 @@
         <v>0</v>
       </c>
       <c r="I1176" t="inlineStr"/>
-      <c r="J1176" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1176" t="inlineStr"/>
       <c r="K1176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39783,9 +39727,7 @@
         <v>0</v>
       </c>
       <c r="I1177" t="inlineStr"/>
-      <c r="J1177" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1177" t="inlineStr"/>
       <c r="K1177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39822,9 +39764,7 @@
         <v>0</v>
       </c>
       <c r="I1178" t="inlineStr"/>
-      <c r="J1178" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1178" t="inlineStr"/>
       <c r="K1178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39861,9 +39801,7 @@
         <v>0</v>
       </c>
       <c r="I1179" t="inlineStr"/>
-      <c r="J1179" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1179" t="inlineStr"/>
       <c r="K1179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39900,9 +39838,7 @@
         <v>0</v>
       </c>
       <c r="I1180" t="inlineStr"/>
-      <c r="J1180" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1180" t="inlineStr"/>
       <c r="K1180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39939,9 +39875,7 @@
         <v>0</v>
       </c>
       <c r="I1181" t="inlineStr"/>
-      <c r="J1181" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1181" t="inlineStr"/>
       <c r="K1181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -39978,9 +39912,7 @@
         <v>0</v>
       </c>
       <c r="I1182" t="inlineStr"/>
-      <c r="J1182" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1182" t="inlineStr"/>
       <c r="K1182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40017,9 +39949,7 @@
         <v>0</v>
       </c>
       <c r="I1183" t="inlineStr"/>
-      <c r="J1183" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1183" t="inlineStr"/>
       <c r="K1183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40056,9 +39986,7 @@
         <v>0</v>
       </c>
       <c r="I1184" t="inlineStr"/>
-      <c r="J1184" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1184" t="inlineStr"/>
       <c r="K1184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40095,9 +40023,7 @@
         <v>0</v>
       </c>
       <c r="I1185" t="inlineStr"/>
-      <c r="J1185" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1185" t="inlineStr"/>
       <c r="K1185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40134,9 +40060,7 @@
         <v>0</v>
       </c>
       <c r="I1186" t="inlineStr"/>
-      <c r="J1186" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1186" t="inlineStr"/>
       <c r="K1186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40173,9 +40097,7 @@
         <v>0</v>
       </c>
       <c r="I1187" t="inlineStr"/>
-      <c r="J1187" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1187" t="inlineStr"/>
       <c r="K1187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40212,9 +40134,7 @@
         <v>0</v>
       </c>
       <c r="I1188" t="inlineStr"/>
-      <c r="J1188" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1188" t="inlineStr"/>
       <c r="K1188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40251,9 +40171,7 @@
         <v>0</v>
       </c>
       <c r="I1189" t="inlineStr"/>
-      <c r="J1189" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1189" t="inlineStr"/>
       <c r="K1189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40290,9 +40208,7 @@
         <v>0</v>
       </c>
       <c r="I1190" t="inlineStr"/>
-      <c r="J1190" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1190" t="inlineStr"/>
       <c r="K1190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40329,9 +40245,7 @@
         <v>0</v>
       </c>
       <c r="I1191" t="inlineStr"/>
-      <c r="J1191" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1191" t="inlineStr"/>
       <c r="K1191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40368,9 +40282,7 @@
         <v>0</v>
       </c>
       <c r="I1192" t="inlineStr"/>
-      <c r="J1192" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1192" t="inlineStr"/>
       <c r="K1192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40407,9 +40319,7 @@
         <v>0</v>
       </c>
       <c r="I1193" t="inlineStr"/>
-      <c r="J1193" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1193" t="inlineStr"/>
       <c r="K1193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40446,9 +40356,7 @@
         <v>0</v>
       </c>
       <c r="I1194" t="inlineStr"/>
-      <c r="J1194" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1194" t="inlineStr"/>
       <c r="K1194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40485,9 +40393,7 @@
         <v>0</v>
       </c>
       <c r="I1195" t="inlineStr"/>
-      <c r="J1195" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1195" t="inlineStr"/>
       <c r="K1195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40524,9 +40430,7 @@
         <v>0</v>
       </c>
       <c r="I1196" t="inlineStr"/>
-      <c r="J1196" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1196" t="inlineStr"/>
       <c r="K1196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40563,9 +40467,7 @@
         <v>0</v>
       </c>
       <c r="I1197" t="inlineStr"/>
-      <c r="J1197" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1197" t="inlineStr"/>
       <c r="K1197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40602,9 +40504,7 @@
         <v>0</v>
       </c>
       <c r="I1198" t="inlineStr"/>
-      <c r="J1198" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1198" t="inlineStr"/>
       <c r="K1198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40641,9 +40541,7 @@
         <v>0</v>
       </c>
       <c r="I1199" t="inlineStr"/>
-      <c r="J1199" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1199" t="inlineStr"/>
       <c r="K1199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40680,9 +40578,7 @@
         <v>0</v>
       </c>
       <c r="I1200" t="inlineStr"/>
-      <c r="J1200" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1200" t="inlineStr"/>
       <c r="K1200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40719,9 +40615,7 @@
         <v>0</v>
       </c>
       <c r="I1201" t="inlineStr"/>
-      <c r="J1201" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1201" t="inlineStr"/>
       <c r="K1201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40758,9 +40652,7 @@
         <v>0</v>
       </c>
       <c r="I1202" t="inlineStr"/>
-      <c r="J1202" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1202" t="inlineStr"/>
       <c r="K1202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40797,9 +40689,7 @@
         <v>0</v>
       </c>
       <c r="I1203" t="inlineStr"/>
-      <c r="J1203" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1203" t="inlineStr"/>
       <c r="K1203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40836,9 +40726,7 @@
         <v>0</v>
       </c>
       <c r="I1204" t="inlineStr"/>
-      <c r="J1204" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1204" t="inlineStr"/>
       <c r="K1204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40875,9 +40763,7 @@
         <v>0</v>
       </c>
       <c r="I1205" t="inlineStr"/>
-      <c r="J1205" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1205" t="inlineStr"/>
       <c r="K1205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40914,9 +40800,7 @@
         <v>0</v>
       </c>
       <c r="I1206" t="inlineStr"/>
-      <c r="J1206" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1206" t="inlineStr"/>
       <c r="K1206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40953,9 +40837,7 @@
         <v>0</v>
       </c>
       <c r="I1207" t="inlineStr"/>
-      <c r="J1207" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1207" t="inlineStr"/>
       <c r="K1207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -40992,9 +40874,7 @@
         <v>0</v>
       </c>
       <c r="I1208" t="inlineStr"/>
-      <c r="J1208" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1208" t="inlineStr"/>
       <c r="K1208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41031,9 +40911,7 @@
         <v>0</v>
       </c>
       <c r="I1209" t="inlineStr"/>
-      <c r="J1209" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1209" t="inlineStr"/>
       <c r="K1209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41070,9 +40948,7 @@
         <v>0</v>
       </c>
       <c r="I1210" t="inlineStr"/>
-      <c r="J1210" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1210" t="inlineStr"/>
       <c r="K1210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41109,9 +40985,7 @@
         <v>0</v>
       </c>
       <c r="I1211" t="inlineStr"/>
-      <c r="J1211" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1211" t="inlineStr"/>
       <c r="K1211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41148,9 +41022,7 @@
         <v>0</v>
       </c>
       <c r="I1212" t="inlineStr"/>
-      <c r="J1212" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1212" t="inlineStr"/>
       <c r="K1212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41187,9 +41059,7 @@
         <v>0</v>
       </c>
       <c r="I1213" t="inlineStr"/>
-      <c r="J1213" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1213" t="inlineStr"/>
       <c r="K1213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41226,9 +41096,7 @@
         <v>0</v>
       </c>
       <c r="I1214" t="inlineStr"/>
-      <c r="J1214" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1214" t="inlineStr"/>
       <c r="K1214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41265,9 +41133,7 @@
         <v>0</v>
       </c>
       <c r="I1215" t="inlineStr"/>
-      <c r="J1215" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1215" t="inlineStr"/>
       <c r="K1215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41304,9 +41170,7 @@
         <v>0</v>
       </c>
       <c r="I1216" t="inlineStr"/>
-      <c r="J1216" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1216" t="inlineStr"/>
       <c r="K1216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41343,9 +41207,7 @@
         <v>0</v>
       </c>
       <c r="I1217" t="inlineStr"/>
-      <c r="J1217" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1217" t="inlineStr"/>
       <c r="K1217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41382,9 +41244,7 @@
         <v>0</v>
       </c>
       <c r="I1218" t="inlineStr"/>
-      <c r="J1218" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1218" t="inlineStr"/>
       <c r="K1218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41421,9 +41281,7 @@
         <v>0</v>
       </c>
       <c r="I1219" t="inlineStr"/>
-      <c r="J1219" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1219" t="inlineStr"/>
       <c r="K1219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41460,9 +41318,7 @@
         <v>0</v>
       </c>
       <c r="I1220" t="inlineStr"/>
-      <c r="J1220" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1220" t="inlineStr"/>
       <c r="K1220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41499,9 +41355,7 @@
         <v>0</v>
       </c>
       <c r="I1221" t="inlineStr"/>
-      <c r="J1221" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1221" t="inlineStr"/>
       <c r="K1221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41538,9 +41392,7 @@
         <v>0</v>
       </c>
       <c r="I1222" t="inlineStr"/>
-      <c r="J1222" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1222" t="inlineStr"/>
       <c r="K1222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41577,9 +41429,7 @@
         <v>0</v>
       </c>
       <c r="I1223" t="inlineStr"/>
-      <c r="J1223" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1223" t="inlineStr"/>
       <c r="K1223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41616,9 +41466,7 @@
         <v>0</v>
       </c>
       <c r="I1224" t="inlineStr"/>
-      <c r="J1224" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1224" t="inlineStr"/>
       <c r="K1224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41655,9 +41503,7 @@
         <v>0</v>
       </c>
       <c r="I1225" t="inlineStr"/>
-      <c r="J1225" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1225" t="inlineStr"/>
       <c r="K1225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41694,9 +41540,7 @@
         <v>0</v>
       </c>
       <c r="I1226" t="inlineStr"/>
-      <c r="J1226" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1226" t="inlineStr"/>
       <c r="K1226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41733,9 +41577,7 @@
         <v>0</v>
       </c>
       <c r="I1227" t="inlineStr"/>
-      <c r="J1227" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1227" t="inlineStr"/>
       <c r="K1227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41772,9 +41614,7 @@
         <v>0</v>
       </c>
       <c r="I1228" t="inlineStr"/>
-      <c r="J1228" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1228" t="inlineStr"/>
       <c r="K1228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41811,9 +41651,7 @@
         <v>0</v>
       </c>
       <c r="I1229" t="inlineStr"/>
-      <c r="J1229" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1229" t="inlineStr"/>
       <c r="K1229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41850,9 +41688,7 @@
         <v>0</v>
       </c>
       <c r="I1230" t="inlineStr"/>
-      <c r="J1230" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1230" t="inlineStr"/>
       <c r="K1230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41889,9 +41725,7 @@
         <v>0</v>
       </c>
       <c r="I1231" t="inlineStr"/>
-      <c r="J1231" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1231" t="inlineStr"/>
       <c r="K1231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41928,9 +41762,7 @@
         <v>0</v>
       </c>
       <c r="I1232" t="inlineStr"/>
-      <c r="J1232" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1232" t="inlineStr"/>
       <c r="K1232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -41967,9 +41799,7 @@
         <v>0</v>
       </c>
       <c r="I1233" t="inlineStr"/>
-      <c r="J1233" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1233" t="inlineStr"/>
       <c r="K1233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42006,9 +41836,7 @@
         <v>0</v>
       </c>
       <c r="I1234" t="inlineStr"/>
-      <c r="J1234" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1234" t="inlineStr"/>
       <c r="K1234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42045,9 +41873,7 @@
         <v>0</v>
       </c>
       <c r="I1235" t="inlineStr"/>
-      <c r="J1235" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1235" t="inlineStr"/>
       <c r="K1235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42084,9 +41910,7 @@
         <v>0</v>
       </c>
       <c r="I1236" t="inlineStr"/>
-      <c r="J1236" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1236" t="inlineStr"/>
       <c r="K1236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42123,9 +41947,7 @@
         <v>0</v>
       </c>
       <c r="I1237" t="inlineStr"/>
-      <c r="J1237" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1237" t="inlineStr"/>
       <c r="K1237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42162,9 +41984,7 @@
         <v>0</v>
       </c>
       <c r="I1238" t="inlineStr"/>
-      <c r="J1238" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1238" t="inlineStr"/>
       <c r="K1238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42201,9 +42021,7 @@
         <v>0</v>
       </c>
       <c r="I1239" t="inlineStr"/>
-      <c r="J1239" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1239" t="inlineStr"/>
       <c r="K1239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42240,9 +42058,7 @@
         <v>0</v>
       </c>
       <c r="I1240" t="inlineStr"/>
-      <c r="J1240" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1240" t="inlineStr"/>
       <c r="K1240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42279,9 +42095,7 @@
         <v>0</v>
       </c>
       <c r="I1241" t="inlineStr"/>
-      <c r="J1241" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1241" t="inlineStr"/>
       <c r="K1241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42318,9 +42132,7 @@
         <v>0</v>
       </c>
       <c r="I1242" t="inlineStr"/>
-      <c r="J1242" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1242" t="inlineStr"/>
       <c r="K1242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42357,9 +42169,7 @@
         <v>0</v>
       </c>
       <c r="I1243" t="inlineStr"/>
-      <c r="J1243" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1243" t="inlineStr"/>
       <c r="K1243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42396,9 +42206,7 @@
         <v>0</v>
       </c>
       <c r="I1244" t="inlineStr"/>
-      <c r="J1244" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1244" t="inlineStr"/>
       <c r="K1244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42435,9 +42243,7 @@
         <v>0</v>
       </c>
       <c r="I1245" t="inlineStr"/>
-      <c r="J1245" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42474,9 +42280,7 @@
         <v>0</v>
       </c>
       <c r="I1246" t="inlineStr"/>
-      <c r="J1246" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1246" t="inlineStr"/>
       <c r="K1246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42513,9 +42317,7 @@
         <v>0</v>
       </c>
       <c r="I1247" t="inlineStr"/>
-      <c r="J1247" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1247" t="inlineStr"/>
       <c r="K1247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42552,9 +42354,7 @@
         <v>0</v>
       </c>
       <c r="I1248" t="inlineStr"/>
-      <c r="J1248" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42591,9 +42391,7 @@
         <v>0</v>
       </c>
       <c r="I1249" t="inlineStr"/>
-      <c r="J1249" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42630,9 +42428,7 @@
         <v>0</v>
       </c>
       <c r="I1250" t="inlineStr"/>
-      <c r="J1250" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1250" t="inlineStr"/>
       <c r="K1250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42669,9 +42465,7 @@
         <v>0</v>
       </c>
       <c r="I1251" t="inlineStr"/>
-      <c r="J1251" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1251" t="inlineStr"/>
       <c r="K1251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42708,9 +42502,7 @@
         <v>0</v>
       </c>
       <c r="I1252" t="inlineStr"/>
-      <c r="J1252" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1252" t="inlineStr"/>
       <c r="K1252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42747,9 +42539,7 @@
         <v>0</v>
       </c>
       <c r="I1253" t="inlineStr"/>
-      <c r="J1253" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42786,9 +42576,7 @@
         <v>0</v>
       </c>
       <c r="I1254" t="inlineStr"/>
-      <c r="J1254" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1254" t="inlineStr"/>
       <c r="K1254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42825,9 +42613,7 @@
         <v>0</v>
       </c>
       <c r="I1255" t="inlineStr"/>
-      <c r="J1255" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1255" t="inlineStr"/>
       <c r="K1255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42864,9 +42650,7 @@
         <v>0</v>
       </c>
       <c r="I1256" t="inlineStr"/>
-      <c r="J1256" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1256" t="inlineStr"/>
       <c r="K1256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42903,9 +42687,7 @@
         <v>0</v>
       </c>
       <c r="I1257" t="inlineStr"/>
-      <c r="J1257" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1257" t="inlineStr"/>
       <c r="K1257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42942,9 +42724,7 @@
         <v>0</v>
       </c>
       <c r="I1258" t="inlineStr"/>
-      <c r="J1258" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1258" t="inlineStr"/>
       <c r="K1258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -42981,9 +42761,7 @@
         <v>0</v>
       </c>
       <c r="I1259" t="inlineStr"/>
-      <c r="J1259" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1259" t="inlineStr"/>
       <c r="K1259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43020,9 +42798,7 @@
         <v>0</v>
       </c>
       <c r="I1260" t="inlineStr"/>
-      <c r="J1260" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1260" t="inlineStr"/>
       <c r="K1260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43059,9 +42835,7 @@
         <v>0</v>
       </c>
       <c r="I1261" t="inlineStr"/>
-      <c r="J1261" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1261" t="inlineStr"/>
       <c r="K1261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43098,9 +42872,7 @@
         <v>0</v>
       </c>
       <c r="I1262" t="inlineStr"/>
-      <c r="J1262" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1262" t="inlineStr"/>
       <c r="K1262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43137,9 +42909,7 @@
         <v>0</v>
       </c>
       <c r="I1263" t="inlineStr"/>
-      <c r="J1263" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1263" t="inlineStr"/>
       <c r="K1263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43176,9 +42946,7 @@
         <v>0</v>
       </c>
       <c r="I1264" t="inlineStr"/>
-      <c r="J1264" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1264" t="inlineStr"/>
       <c r="K1264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43215,9 +42983,7 @@
         <v>0</v>
       </c>
       <c r="I1265" t="inlineStr"/>
-      <c r="J1265" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1265" t="inlineStr"/>
       <c r="K1265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43254,9 +43020,7 @@
         <v>0</v>
       </c>
       <c r="I1266" t="inlineStr"/>
-      <c r="J1266" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1266" t="inlineStr"/>
       <c r="K1266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43293,9 +43057,7 @@
         <v>0</v>
       </c>
       <c r="I1267" t="inlineStr"/>
-      <c r="J1267" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1267" t="inlineStr"/>
       <c r="K1267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43332,9 +43094,7 @@
         <v>0</v>
       </c>
       <c r="I1268" t="inlineStr"/>
-      <c r="J1268" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1268" t="inlineStr"/>
       <c r="K1268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43371,9 +43131,7 @@
         <v>0</v>
       </c>
       <c r="I1269" t="inlineStr"/>
-      <c r="J1269" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1269" t="inlineStr"/>
       <c r="K1269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43410,9 +43168,7 @@
         <v>0</v>
       </c>
       <c r="I1270" t="inlineStr"/>
-      <c r="J1270" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1270" t="inlineStr"/>
       <c r="K1270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43449,9 +43205,7 @@
         <v>0</v>
       </c>
       <c r="I1271" t="inlineStr"/>
-      <c r="J1271" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1271" t="inlineStr"/>
       <c r="K1271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43488,9 +43242,7 @@
         <v>0</v>
       </c>
       <c r="I1272" t="inlineStr"/>
-      <c r="J1272" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1272" t="inlineStr"/>
       <c r="K1272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -43527,9 +43279,7 @@
         <v>0</v>
       </c>
       <c r="I1273" t="inlineStr"/>
-      <c r="J1273" t="n">
-        <v>2.039</v>
-      </c>
+      <c r="J1273" t="inlineStr"/>
       <c r="K1273" t="inlineStr">
         <is>
           <t>매도 대기</t>
